--- a/data_excel/_tematdb_tep_excel_v1.0.0_00101-00150.xlsx
+++ b/data_excel/_tematdb_tep_excel_v1.0.0_00101-00150.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD 2022/tematdb/tematdb v10.00   20220418 tep check brjcsjp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\일지\tematdb v1.1 20240411 tep check brjcsjp\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="11_28286A4F8FAA0711CC76B03A8F33D573BA755E9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D74A1D-4A9A-4884-81D2-D208782198A2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28995" windowHeight="15675" tabRatio="745" firstSheet="4" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="#00101" sheetId="54" r:id="rId1"/>
@@ -64,7 +63,7 @@
     <sheet name="#00149" sheetId="102" r:id="rId49"/>
     <sheet name="#00150" sheetId="103" r:id="rId50"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="57">
   <si>
     <t>cond</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,16 +433,25 @@
     <t>JHS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -502,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,8 +535,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -736,6 +750,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +951,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,6 +1384,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1352,7 +1392,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2246,13 +2285,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -3842,13 +3881,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -5242,13 +5281,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -6390,13 +6429,13 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -8175,13 +8214,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -10238,13 +10277,13 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -10913,13 +10952,13 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -12103,13 +12142,13 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -13247,13 +13286,13 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -14549,13 +14588,13 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -15502,13 +15541,13 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -16584,13 +16623,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -18308,13 +18347,13 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -19372,13 +19411,13 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -20403,13 +20442,13 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -21141,13 +21180,13 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -22056,13 +22095,13 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -22833,13 +22872,2314 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="18"/>
+    <col min="17" max="17" width="10.5" style="14" customWidth="1"/>
+    <col min="19" max="19" width="9" style="22"/>
+    <col min="21" max="21" width="9" style="22"/>
+    <col min="22" max="22" width="13.0625" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B9" s="63">
+        <v>331.27962085308002</v>
+      </c>
+      <c r="C9" s="63">
+        <v>5443.5483870967701</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="63">
+        <v>331.37254901960699</v>
+      </c>
+      <c r="G9" s="63">
+        <v>44.926350245499101</v>
+      </c>
+      <c r="H9" s="63">
+        <v>330.98982423681701</v>
+      </c>
+      <c r="I9" s="63">
+        <v>5.21895006402048</v>
+      </c>
+      <c r="J9" s="63">
+        <v>331.60173160173099</v>
+      </c>
+      <c r="K9" s="63">
+        <v>0.21080108010800999</v>
+      </c>
+      <c r="N9" s="3">
+        <f>B9</f>
+        <v>331.27962085308002</v>
+      </c>
+      <c r="O9" s="21">
+        <f>C9*100</f>
+        <v>544354.83870967699</v>
+      </c>
+      <c r="P9" s="3">
+        <f>F9</f>
+        <v>331.37254901960699</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>G9*0.000001</f>
+        <v>4.4926350245499097E-5</v>
+      </c>
+      <c r="R9" s="3">
+        <f>H9</f>
+        <v>330.98982423681701</v>
+      </c>
+      <c r="S9" s="24">
+        <f>I9</f>
+        <v>5.21895006402048</v>
+      </c>
+      <c r="T9" s="3">
+        <f>J9</f>
+        <v>331.60173160173099</v>
+      </c>
+      <c r="U9" s="24">
+        <f>K9</f>
+        <v>0.21080108010800999</v>
+      </c>
+      <c r="V9" s="22">
+        <f>((O9*(Q9)^2)/S9)*T9</f>
+        <v>6.9810060284110673E-2</v>
+      </c>
+      <c r="W9" s="22">
+        <f>U9-V9</f>
+        <v>0.14099101982389933</v>
+      </c>
+      <c r="X9" s="57">
+        <f>U9/V9-1</f>
+        <v>2.0196375601181082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B10" s="63">
+        <v>370.61611374407499</v>
+      </c>
+      <c r="C10" s="63">
+        <v>4516.1290322580599</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="63">
+        <v>372.54901960784298</v>
+      </c>
+      <c r="G10" s="63">
+        <v>51.145662847790497</v>
+      </c>
+      <c r="H10" s="63">
+        <v>372.15541165587399</v>
+      </c>
+      <c r="I10" s="63">
+        <v>4.5813060179257299</v>
+      </c>
+      <c r="J10" s="63">
+        <v>372.29437229437201</v>
+      </c>
+      <c r="K10" s="63">
+        <v>0.26048604860486002</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N20" si="0">B10</f>
+        <v>370.61611374407499</v>
+      </c>
+      <c r="O10" s="21">
+        <f t="shared" ref="O10:O20" si="1">C10*100</f>
+        <v>451612.90322580596</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10:P20" si="2">F10</f>
+        <v>372.54901960784298</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" ref="Q10:Q20" si="3">G10*0.000001</f>
+        <v>5.1145662847790496E-5</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" ref="R10:U20" si="4">H10</f>
+        <v>372.15541165587399</v>
+      </c>
+      <c r="S10" s="24">
+        <f t="shared" si="4"/>
+        <v>4.5813060179257299</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="4"/>
+        <v>372.29437229437201</v>
+      </c>
+      <c r="U10" s="24">
+        <f t="shared" si="4"/>
+        <v>0.26048604860486002</v>
+      </c>
+      <c r="V10" s="22">
+        <f t="shared" ref="V10:V20" si="5">((O10*(Q10)^2)/S10)*T10</f>
+        <v>9.6002188551434151E-2</v>
+      </c>
+      <c r="W10" s="22">
+        <f t="shared" ref="W10:W20" si="6">U10-V10</f>
+        <v>0.16448386005342586</v>
+      </c>
+      <c r="X10" s="57">
+        <f t="shared" ref="X10:X20" si="7">U10/V10-1</f>
+        <v>1.7133344826331949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B11" s="63">
+        <v>418.957345971564</v>
+      </c>
+      <c r="C11" s="63">
+        <v>3685.4838709677401</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="63">
+        <v>420.588235294117</v>
+      </c>
+      <c r="G11" s="63">
+        <v>60.638297872340303</v>
+      </c>
+      <c r="H11" s="63">
+        <v>417.94634597594802</v>
+      </c>
+      <c r="I11" s="63">
+        <v>4.0204865556978202</v>
+      </c>
+      <c r="J11" s="63">
+        <v>420.77922077922</v>
+      </c>
+      <c r="K11" s="63">
+        <v>0.34257425742574199</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>418.957345971564</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="1"/>
+        <v>368548.38709677401</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>420.588235294117</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="3"/>
+        <v>6.0638297872340303E-5</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="4"/>
+        <v>417.94634597594802</v>
+      </c>
+      <c r="S11" s="24">
+        <f t="shared" si="4"/>
+        <v>4.0204865556978202</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="4"/>
+        <v>420.77922077922</v>
+      </c>
+      <c r="U11" s="24">
+        <f t="shared" si="4"/>
+        <v>0.34257425742574199</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="5"/>
+        <v>0.14182872211403347</v>
+      </c>
+      <c r="W11" s="22">
+        <f t="shared" si="6"/>
+        <v>0.20074553531170852</v>
+      </c>
+      <c r="X11" s="57">
+        <f t="shared" si="7"/>
+        <v>1.4154081932029579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B12" s="63">
+        <v>469.668246445497</v>
+      </c>
+      <c r="C12" s="63">
+        <v>2951.6129032258</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="63">
+        <v>467.15686274509699</v>
+      </c>
+      <c r="G12" s="63">
+        <v>69.803600654664507</v>
+      </c>
+      <c r="H12" s="63">
+        <v>469.28769657724303</v>
+      </c>
+      <c r="I12" s="63">
+        <v>3.4980793854033201</v>
+      </c>
+      <c r="J12" s="63">
+        <v>469.26406926406901</v>
+      </c>
+      <c r="K12" s="63">
+        <v>0.41170117011701102</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>469.668246445497</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="1"/>
+        <v>295161.29032258003</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>467.15686274509699</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="3"/>
+        <v>6.9803600654664498E-5</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>469.28769657724303</v>
+      </c>
+      <c r="S12" s="24">
+        <f t="shared" si="4"/>
+        <v>3.4980793854033201</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="4"/>
+        <v>469.26406926406901</v>
+      </c>
+      <c r="U12" s="24">
+        <f t="shared" si="4"/>
+        <v>0.41170117011701102</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="5"/>
+        <v>0.19293130056801311</v>
+      </c>
+      <c r="W12" s="22">
+        <f t="shared" si="6"/>
+        <v>0.21876986954899791</v>
+      </c>
+      <c r="X12" s="57">
+        <f t="shared" si="7"/>
+        <v>1.1339262675621473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B13" s="63">
+        <v>517.53554502369605</v>
+      </c>
+      <c r="C13" s="63">
+        <v>2338.7096774193501</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="63">
+        <v>517.64705882352905</v>
+      </c>
+      <c r="G13" s="63">
+        <v>82.2422258592471</v>
+      </c>
+      <c r="H13" s="63">
+        <v>516.92876965772405</v>
+      </c>
+      <c r="I13" s="63">
+        <v>3.0909090909090899</v>
+      </c>
+      <c r="J13" s="63">
+        <v>517.74891774891705</v>
+      </c>
+      <c r="K13" s="63">
+        <v>0.51755175517551699</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>517.53554502369605</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="1"/>
+        <v>233870.96774193502</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>517.64705882352905</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="3"/>
+        <v>8.2242225859247093E-5</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>516.92876965772405</v>
+      </c>
+      <c r="S13" s="24">
+        <f t="shared" si="4"/>
+        <v>3.0909090909090899</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="4"/>
+        <v>517.74891774891705</v>
+      </c>
+      <c r="U13" s="24">
+        <f t="shared" si="4"/>
+        <v>0.51755175517551699</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="5"/>
+        <v>0.26497139507794021</v>
+      </c>
+      <c r="W13" s="22">
+        <f t="shared" si="6"/>
+        <v>0.25258036009757678</v>
+      </c>
+      <c r="X13" s="57">
+        <f t="shared" si="7"/>
+        <v>0.95323632961694349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B14" s="63">
+        <v>567.77251184834097</v>
+      </c>
+      <c r="C14" s="63">
+        <v>1991.9354838709601</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="63">
+        <v>567.64705882352905</v>
+      </c>
+      <c r="G14" s="63">
+        <v>91.407528641571204</v>
+      </c>
+      <c r="H14" s="63">
+        <v>566.88251618871402</v>
+      </c>
+      <c r="I14" s="63">
+        <v>2.8450704225352101</v>
+      </c>
+      <c r="J14" s="63">
+        <v>566.66666666666595</v>
+      </c>
+      <c r="K14" s="63">
+        <v>0.59207920792079105</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>567.77251184834097</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="1"/>
+        <v>199193.548387096</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>567.64705882352905</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="3"/>
+        <v>9.1407528641571206E-5</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>566.88251618871402</v>
+      </c>
+      <c r="S14" s="24">
+        <f t="shared" si="4"/>
+        <v>2.8450704225352101</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="4"/>
+        <v>566.66666666666595</v>
+      </c>
+      <c r="U14" s="24">
+        <f t="shared" si="4"/>
+        <v>0.59207920792079105</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="5"/>
+        <v>0.33149260799330371</v>
+      </c>
+      <c r="W14" s="22">
+        <f t="shared" si="6"/>
+        <v>0.26058659992748734</v>
+      </c>
+      <c r="X14" s="57">
+        <f t="shared" si="7"/>
+        <v>0.78610078669612826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B15" s="63">
+        <v>618.48341232227494</v>
+      </c>
+      <c r="C15" s="63">
+        <v>1758.0645161290299</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="63">
+        <v>616.66666666666595</v>
+      </c>
+      <c r="G15" s="63">
+        <v>105.31914893617</v>
+      </c>
+      <c r="H15" s="63">
+        <v>620.53654024051798</v>
+      </c>
+      <c r="I15" s="63">
+        <v>2.5377720870678599</v>
+      </c>
+      <c r="J15" s="63">
+        <v>619.91341991341994</v>
+      </c>
+      <c r="K15" s="63">
+        <v>0.75841584158415798</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>618.48341232227494</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="1"/>
+        <v>175806.45161290298</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>616.66666666666595</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0531914893617E-4</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>620.53654024051798</v>
+      </c>
+      <c r="S15" s="24">
+        <f t="shared" si="4"/>
+        <v>2.5377720870678599</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="4"/>
+        <v>619.91341991341994</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="4"/>
+        <v>0.75841584158415798</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="5"/>
+        <v>0.4763519114520855</v>
+      </c>
+      <c r="W15" s="22">
+        <f t="shared" si="6"/>
+        <v>0.28206393013207248</v>
+      </c>
+      <c r="X15" s="57">
+        <f t="shared" si="7"/>
+        <v>0.59213351169777817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="B16" s="63">
+        <v>667.77251184834097</v>
+      </c>
+      <c r="C16" s="63">
+        <v>1435.4838709677399</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="63">
+        <v>667.15686274509699</v>
+      </c>
+      <c r="G16" s="63">
+        <v>122.831423895253</v>
+      </c>
+      <c r="H16" s="63">
+        <v>666.32747456059201</v>
+      </c>
+      <c r="I16" s="63">
+        <v>2.2381562099871899</v>
+      </c>
+      <c r="J16" s="63">
+        <v>667.09956709956703</v>
+      </c>
+      <c r="K16" s="63">
+        <v>0.94635463546354603</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>667.77251184834097</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="1"/>
+        <v>143548.38709677398</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>667.15686274509699</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="3"/>
+        <v>1.22831423895253E-4</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>666.32747456059201</v>
+      </c>
+      <c r="S16" s="24">
+        <f t="shared" si="4"/>
+        <v>2.2381562099871899</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="4"/>
+        <v>667.09956709956703</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="4"/>
+        <v>0.94635463546354603</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="5"/>
+        <v>0.64553167069477213</v>
+      </c>
+      <c r="W16" s="22">
+        <f t="shared" si="6"/>
+        <v>0.3008229647687739</v>
+      </c>
+      <c r="X16" s="57">
+        <f t="shared" si="7"/>
+        <v>0.46600806501872238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B17" s="63">
+        <v>720.85308056871997</v>
+      </c>
+      <c r="C17" s="63">
+        <v>1120.96774193548</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="63">
+        <v>720.09803921568596</v>
+      </c>
+      <c r="G17" s="63">
+        <v>140.016366612111</v>
+      </c>
+      <c r="H17" s="63">
+        <v>720.90656799259898</v>
+      </c>
+      <c r="I17" s="63">
+        <v>2.1229193341869399</v>
+      </c>
+      <c r="J17" s="63">
+        <v>720.77922077922005</v>
+      </c>
+      <c r="K17" s="63">
+        <v>1.0295229522952201</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>720.85308056871997</v>
+      </c>
+      <c r="O17" s="21">
+        <f t="shared" si="1"/>
+        <v>112096.774193548</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>720.09803921568596</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="3"/>
+        <v>1.40016366612111E-4</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="4"/>
+        <v>720.90656799259898</v>
+      </c>
+      <c r="S17" s="24">
+        <f t="shared" si="4"/>
+        <v>2.1229193341869399</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="4"/>
+        <v>720.77922077922005</v>
+      </c>
+      <c r="U17" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0295229522952201</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" si="5"/>
+        <v>0.74613856570802983</v>
+      </c>
+      <c r="W17" s="22">
+        <f t="shared" si="6"/>
+        <v>0.28338438658719023</v>
+      </c>
+      <c r="X17" s="57">
+        <f t="shared" si="7"/>
+        <v>0.37980128572804639</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B18" s="63">
+        <v>774.88151658767697</v>
+      </c>
+      <c r="C18" s="63">
+        <v>975.80645161290295</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="63">
+        <v>773.52941176470495</v>
+      </c>
+      <c r="G18" s="63">
+        <v>154.255319148936</v>
+      </c>
+      <c r="H18" s="63">
+        <v>774.56059204440305</v>
+      </c>
+      <c r="I18" s="63">
+        <v>2.0921895006401998</v>
+      </c>
+      <c r="J18" s="63">
+        <v>774.45887445887399</v>
+      </c>
+      <c r="K18" s="63">
+        <v>1.11377137713771</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>774.88151658767697</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="1"/>
+        <v>97580.645161290289</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>773.52941176470495</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5425531914893599E-4</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="4"/>
+        <v>774.56059204440305</v>
+      </c>
+      <c r="S18" s="24">
+        <f t="shared" si="4"/>
+        <v>2.0921895006401998</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="4"/>
+        <v>774.45887445887399</v>
+      </c>
+      <c r="U18" s="24">
+        <f t="shared" si="4"/>
+        <v>1.11377137713771</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="5"/>
+        <v>0.85949098291650528</v>
+      </c>
+      <c r="W18" s="22">
+        <f t="shared" si="6"/>
+        <v>0.25428039422120474</v>
+      </c>
+      <c r="X18" s="57">
+        <f t="shared" si="7"/>
+        <v>0.29584998478792257</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B19" s="63">
+        <v>823.69668246445497</v>
+      </c>
+      <c r="C19" s="63">
+        <v>806.45161290322505</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="63">
+        <v>823.03921568627402</v>
+      </c>
+      <c r="G19" s="63">
+        <v>168.00327332242199</v>
+      </c>
+      <c r="H19" s="63">
+        <v>822.66419981498598</v>
+      </c>
+      <c r="I19" s="63">
+        <v>2.0076824583866801</v>
+      </c>
+      <c r="J19" s="63">
+        <v>823.376623376623</v>
+      </c>
+      <c r="K19" s="63">
+        <v>1.2304230423042299</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
+        <v>823.69668246445497</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="1"/>
+        <v>80645.161290322503</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>823.03921568627402</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="3"/>
+        <v>1.6800327332242197E-4</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="4"/>
+        <v>822.66419981498598</v>
+      </c>
+      <c r="S19" s="24">
+        <f t="shared" si="4"/>
+        <v>2.0076824583866801</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="4"/>
+        <v>823.376623376623</v>
+      </c>
+      <c r="U19" s="24">
+        <f t="shared" si="4"/>
+        <v>1.2304230423042299</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="5"/>
+        <v>0.933506422013894</v>
+      </c>
+      <c r="W19" s="22">
+        <f t="shared" si="6"/>
+        <v>0.29691662029033594</v>
+      </c>
+      <c r="X19" s="57">
+        <f t="shared" si="7"/>
+        <v>0.31806596429169165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B20" s="63">
+        <v>877.25118483412302</v>
+      </c>
+      <c r="C20" s="63">
+        <v>806.45161290322505</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="63">
+        <v>876.47058823529403</v>
+      </c>
+      <c r="G20" s="63">
+        <v>184.36988543371501</v>
+      </c>
+      <c r="H20" s="63">
+        <v>877.24329324699295</v>
+      </c>
+      <c r="I20" s="63">
+        <v>1.9769526248399401</v>
+      </c>
+      <c r="J20" s="63">
+        <v>875.75757575757495</v>
+      </c>
+      <c r="K20" s="63">
+        <v>1.3233123312331201</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
+        <v>877.25118483412302</v>
+      </c>
+      <c r="O20" s="21">
+        <f t="shared" si="1"/>
+        <v>80645.161290322503</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>876.47058823529403</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" si="3"/>
+        <v>1.8436988543371499E-4</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="4"/>
+        <v>877.24329324699295</v>
+      </c>
+      <c r="S20" s="24">
+        <f t="shared" si="4"/>
+        <v>1.9769526248399401</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="4"/>
+        <v>875.75757575757495</v>
+      </c>
+      <c r="U20" s="24">
+        <f t="shared" si="4"/>
+        <v>1.3233123312331201</v>
+      </c>
+      <c r="V20" s="22">
+        <f t="shared" si="5"/>
+        <v>1.2143557323226366</v>
+      </c>
+      <c r="W20" s="22">
+        <f t="shared" si="6"/>
+        <v>0.10895659891048348</v>
+      </c>
+      <c r="X20" s="57">
+        <f t="shared" si="7"/>
+        <v>8.9723790163272588E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="O23"/>
+      <c r="Q23"/>
+      <c r="S23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="O24"/>
+      <c r="Q24"/>
+      <c r="S24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B27" s="36">
+        <v>330.35</v>
+      </c>
+      <c r="C27" s="36">
+        <v>5520.99</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="36">
+        <v>330.28300000000002</v>
+      </c>
+      <c r="G27" s="36">
+        <v>43.888399999999997</v>
+      </c>
+      <c r="H27" s="36">
+        <v>329.73200000000003</v>
+      </c>
+      <c r="I27" s="36">
+        <v>5.2243500000000003</v>
+      </c>
+      <c r="J27" s="3">
+        <v>326.84199999999998</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.211173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B28" s="3">
+        <v>372.44499999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4575.7</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3">
+        <v>371.786</v>
+      </c>
+      <c r="G28" s="4">
+        <v>51.293799999999997</v>
+      </c>
+      <c r="H28" s="3">
+        <v>373.52600000000001</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4.6590199999999999</v>
+      </c>
+      <c r="J28" s="3">
+        <v>369.47399999999999</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.25810100000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B29" s="2">
+        <v>419.59899999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3695.44</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2">
+        <v>419.38200000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>61.572200000000002</v>
+      </c>
+      <c r="H29" s="2">
+        <v>422.18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4.0736100000000004</v>
+      </c>
+      <c r="J29" s="2">
+        <v>418.42099999999999</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.33631299999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B30" s="2">
+        <v>465.44600000000003</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2965.94</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
+        <v>465.76299999999998</v>
+      </c>
+      <c r="G30" s="1">
+        <v>70.6203</v>
+      </c>
+      <c r="H30" s="2">
+        <v>467.18799999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.5083199999999999</v>
+      </c>
+      <c r="J30" s="2">
+        <v>467.36799999999999</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.41843599999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B31" s="2">
+        <v>518.85599999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2430.9699999999998</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2">
+        <v>517.01400000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>82.540599999999998</v>
+      </c>
+      <c r="H31" s="2">
+        <v>518.24599999999998</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.1254300000000002</v>
+      </c>
+      <c r="J31" s="2">
+        <v>516.31600000000003</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.53184399999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.6">
+      <c r="B32" s="2">
+        <v>565.87599999999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2089.5100000000002</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2">
+        <v>563.39800000000002</v>
+      </c>
+      <c r="G32" s="1">
+        <v>91.178899999999999</v>
+      </c>
+      <c r="H32" s="2">
+        <v>565.649</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.84362</v>
+      </c>
+      <c r="J32" s="2">
+        <v>563.68399999999997</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.59832399999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B33" s="2">
+        <v>620.50099999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1770.14</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2">
+        <v>613.41700000000003</v>
+      </c>
+      <c r="G33" s="1">
+        <v>104.738</v>
+      </c>
+      <c r="H33" s="2">
+        <v>619.12900000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2.5215299999999998</v>
+      </c>
+      <c r="J33" s="2">
+        <v>615.78899999999999</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.76648000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B34" s="2">
+        <v>666.23</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1514.8</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2">
+        <v>665.851</v>
+      </c>
+      <c r="G34" s="1">
+        <v>123.21599999999999</v>
+      </c>
+      <c r="H34" s="2">
+        <v>666.52200000000005</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2.3207</v>
+      </c>
+      <c r="J34" s="2">
+        <v>666.31600000000003</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.94636900000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B35" s="2">
+        <v>720.85500000000002</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1195.44</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2">
+        <v>719.51099999999997</v>
+      </c>
+      <c r="G35" s="1">
+        <v>140.876</v>
+      </c>
+      <c r="H35" s="2">
+        <v>717.55399999999997</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2.1604800000000002</v>
+      </c>
+      <c r="J35" s="2">
+        <v>718.42100000000005</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.0324</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B36" s="2">
+        <v>771.64300000000003</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1005.11</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2">
+        <v>774.41600000000005</v>
+      </c>
+      <c r="G36" s="1">
+        <v>154.84800000000001</v>
+      </c>
+      <c r="H36" s="2">
+        <v>769.78499999999997</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.12175</v>
+      </c>
+      <c r="J36" s="2">
+        <v>775.26300000000003</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.1184400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B37" s="2">
+        <v>823.67700000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>901.08799999999997</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2">
+        <v>821.98400000000004</v>
+      </c>
+      <c r="G37" s="1">
+        <v>169.63499999999999</v>
+      </c>
+      <c r="H37" s="2">
+        <v>822.02200000000005</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.0425399999999998</v>
+      </c>
+      <c r="J37" s="2">
+        <v>821.053</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.23184</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B38" s="35">
+        <v>874.44299999999998</v>
+      </c>
+      <c r="C38" s="35">
+        <v>796.97299999999996</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="35">
+        <v>873.21299999999997</v>
+      </c>
+      <c r="G38" s="35">
+        <v>185.24299999999999</v>
+      </c>
+      <c r="H38" s="35">
+        <v>875.46799999999996</v>
+      </c>
+      <c r="I38" s="35">
+        <v>2.00386</v>
+      </c>
+      <c r="J38" s="35">
+        <v>877.89499999999998</v>
+      </c>
+      <c r="K38" s="35">
+        <v>1.32961</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="C41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="D41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="E41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="F41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="G41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="H41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="I41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="J41" s="60">
+        <v>45028</v>
+      </c>
+      <c r="K41" s="60">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B43">
+        <v>331.27962085308002</v>
+      </c>
+      <c r="C43">
+        <v>5443.5483870967701</v>
+      </c>
+      <c r="F43">
+        <v>331.37254901960699</v>
+      </c>
+      <c r="G43">
+        <v>44.926350245499101</v>
+      </c>
+      <c r="H43">
+        <v>330.98982423681701</v>
+      </c>
+      <c r="I43">
+        <v>5.21895006402048</v>
+      </c>
+      <c r="J43">
+        <v>331.60173160173099</v>
+      </c>
+      <c r="K43">
+        <v>0.21080108010800999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B44">
+        <v>370.61611374407499</v>
+      </c>
+      <c r="C44">
+        <v>4516.1290322580599</v>
+      </c>
+      <c r="F44">
+        <v>372.54901960784298</v>
+      </c>
+      <c r="G44">
+        <v>51.145662847790497</v>
+      </c>
+      <c r="H44">
+        <v>372.15541165587399</v>
+      </c>
+      <c r="I44">
+        <v>4.5813060179257299</v>
+      </c>
+      <c r="J44">
+        <v>372.29437229437201</v>
+      </c>
+      <c r="K44">
+        <v>0.26048604860486002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B45">
+        <v>418.957345971564</v>
+      </c>
+      <c r="C45">
+        <v>3685.4838709677401</v>
+      </c>
+      <c r="F45">
+        <v>420.588235294117</v>
+      </c>
+      <c r="G45">
+        <v>60.638297872340303</v>
+      </c>
+      <c r="H45">
+        <v>417.94634597594802</v>
+      </c>
+      <c r="I45">
+        <v>4.0204865556978202</v>
+      </c>
+      <c r="J45">
+        <v>420.77922077922</v>
+      </c>
+      <c r="K45">
+        <v>0.34257425742574199</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B46">
+        <v>469.668246445497</v>
+      </c>
+      <c r="C46">
+        <v>2951.6129032258</v>
+      </c>
+      <c r="F46">
+        <v>467.15686274509699</v>
+      </c>
+      <c r="G46">
+        <v>69.803600654664507</v>
+      </c>
+      <c r="H46">
+        <v>469.28769657724303</v>
+      </c>
+      <c r="I46">
+        <v>3.4980793854033201</v>
+      </c>
+      <c r="J46">
+        <v>469.26406926406901</v>
+      </c>
+      <c r="K46">
+        <v>0.41170117011701102</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B47">
+        <v>517.53554502369605</v>
+      </c>
+      <c r="C47">
+        <v>2338.7096774193501</v>
+      </c>
+      <c r="F47">
+        <v>517.64705882352905</v>
+      </c>
+      <c r="G47">
+        <v>82.2422258592471</v>
+      </c>
+      <c r="H47">
+        <v>516.92876965772405</v>
+      </c>
+      <c r="I47">
+        <v>3.0909090909090899</v>
+      </c>
+      <c r="J47">
+        <v>517.74891774891705</v>
+      </c>
+      <c r="K47">
+        <v>0.51755175517551699</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B48">
+        <v>567.77251184834097</v>
+      </c>
+      <c r="C48">
+        <v>1991.9354838709601</v>
+      </c>
+      <c r="F48">
+        <v>567.64705882352905</v>
+      </c>
+      <c r="G48">
+        <v>91.407528641571204</v>
+      </c>
+      <c r="H48">
+        <v>566.88251618871402</v>
+      </c>
+      <c r="I48">
+        <v>2.8450704225352101</v>
+      </c>
+      <c r="J48">
+        <v>566.66666666666595</v>
+      </c>
+      <c r="K48">
+        <v>0.59207920792079105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B49">
+        <v>618.48341232227494</v>
+      </c>
+      <c r="C49">
+        <v>1758.0645161290299</v>
+      </c>
+      <c r="F49">
+        <v>616.66666666666595</v>
+      </c>
+      <c r="G49">
+        <v>105.31914893617</v>
+      </c>
+      <c r="H49">
+        <v>620.53654024051798</v>
+      </c>
+      <c r="I49">
+        <v>2.5377720870678599</v>
+      </c>
+      <c r="J49">
+        <v>619.91341991341994</v>
+      </c>
+      <c r="K49">
+        <v>0.75841584158415798</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B50">
+        <v>667.77251184834097</v>
+      </c>
+      <c r="C50">
+        <v>1435.4838709677399</v>
+      </c>
+      <c r="F50">
+        <v>667.15686274509699</v>
+      </c>
+      <c r="G50">
+        <v>122.831423895253</v>
+      </c>
+      <c r="H50">
+        <v>666.32747456059201</v>
+      </c>
+      <c r="I50">
+        <v>2.2381562099871899</v>
+      </c>
+      <c r="J50">
+        <v>667.09956709956703</v>
+      </c>
+      <c r="K50">
+        <v>0.94635463546354603</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B51">
+        <v>720.85308056871997</v>
+      </c>
+      <c r="C51">
+        <v>1120.96774193548</v>
+      </c>
+      <c r="F51">
+        <v>720.09803921568596</v>
+      </c>
+      <c r="G51">
+        <v>140.016366612111</v>
+      </c>
+      <c r="H51">
+        <v>720.90656799259898</v>
+      </c>
+      <c r="I51">
+        <v>2.1229193341869399</v>
+      </c>
+      <c r="J51">
+        <v>720.77922077922005</v>
+      </c>
+      <c r="K51">
+        <v>1.0295229522952201</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B52">
+        <v>774.88151658767697</v>
+      </c>
+      <c r="C52">
+        <v>975.80645161290295</v>
+      </c>
+      <c r="F52">
+        <v>773.52941176470495</v>
+      </c>
+      <c r="G52">
+        <v>154.255319148936</v>
+      </c>
+      <c r="H52">
+        <v>774.56059204440305</v>
+      </c>
+      <c r="I52">
+        <v>2.0921895006401998</v>
+      </c>
+      <c r="J52">
+        <v>774.45887445887399</v>
+      </c>
+      <c r="K52">
+        <v>1.11377137713771</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B53">
+        <v>823.69668246445497</v>
+      </c>
+      <c r="C53">
+        <v>806.45161290322505</v>
+      </c>
+      <c r="F53">
+        <v>823.03921568627402</v>
+      </c>
+      <c r="G53">
+        <v>168.00327332242199</v>
+      </c>
+      <c r="H53">
+        <v>822.66419981498598</v>
+      </c>
+      <c r="I53">
+        <v>2.0076824583866801</v>
+      </c>
+      <c r="J53">
+        <v>823.376623376623</v>
+      </c>
+      <c r="K53">
+        <v>1.2304230423042299</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B54">
+        <v>877.25118483412302</v>
+      </c>
+      <c r="C54">
+        <v>806.45161290322505</v>
+      </c>
+      <c r="F54">
+        <v>876.47058823529403</v>
+      </c>
+      <c r="G54">
+        <v>184.36988543371501</v>
+      </c>
+      <c r="H54">
+        <v>877.24329324699295</v>
+      </c>
+      <c r="I54">
+        <v>1.9769526248399401</v>
+      </c>
+      <c r="J54">
+        <v>875.75757575757495</v>
+      </c>
+      <c r="K54">
+        <v>1.3233123312331201</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B57" s="61">
+        <f>B27/B43-1</f>
+        <v>-2.8061516452057012E-3</v>
+      </c>
+      <c r="C57" s="61">
+        <f t="shared" ref="C57:K57" si="8">C27/C43-1</f>
+        <v>1.4226311111111833E-2</v>
+      </c>
+      <c r="D57" s="61" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57" s="61" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="61">
+        <f t="shared" si="8"/>
+        <v>-3.2879881656778798E-3</v>
+      </c>
+      <c r="G57" s="61">
+        <f t="shared" si="8"/>
+        <v>-2.3103373406191396E-2</v>
+      </c>
+      <c r="H57" s="61">
+        <f t="shared" si="8"/>
+        <v>-3.8001900503050745E-3</v>
+      </c>
+      <c r="I57" s="61">
+        <f t="shared" si="8"/>
+        <v>1.0346786064783231E-3</v>
+      </c>
+      <c r="J57" s="61">
+        <f t="shared" si="8"/>
+        <v>-1.4353759791120968E-2</v>
+      </c>
+      <c r="K57" s="61">
+        <f t="shared" si="8"/>
+        <v>1.7643168232317485E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B58" s="61">
+        <f t="shared" ref="B58:K58" si="9">B28/B44-1</f>
+        <v>4.9347186700789969E-3</v>
+      </c>
+      <c r="C58" s="61">
+        <f t="shared" si="9"/>
+        <v>1.3190714285715277E-2</v>
+      </c>
+      <c r="D58" s="61" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58" s="61" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="61">
+        <f t="shared" si="9"/>
+        <v>-2.0481052631574626E-3</v>
+      </c>
+      <c r="G58" s="61">
+        <f t="shared" si="9"/>
+        <v>2.8963776000001662E-3</v>
+      </c>
+      <c r="H58" s="61">
+        <f t="shared" si="9"/>
+        <v>3.6828386776044386E-3</v>
+      </c>
+      <c r="I58" s="61">
+        <f t="shared" si="9"/>
+        <v>1.6963281162662103E-2</v>
+      </c>
+      <c r="J58" s="61">
+        <f t="shared" si="9"/>
+        <v>-7.5756511627900203E-3</v>
+      </c>
+      <c r="K58" s="61">
+        <f t="shared" si="9"/>
+        <v>-9.1561472011039147E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B59" s="61">
+        <f t="shared" ref="B59:K59" si="10">B29/B45-1</f>
+        <v>1.5315497737555805E-3</v>
+      </c>
+      <c r="C59" s="61">
+        <f t="shared" si="10"/>
+        <v>2.7014442013133522E-3</v>
+      </c>
+      <c r="D59" s="61" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E59" s="61" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59" s="61">
+        <f t="shared" si="10"/>
+        <v>-2.8679720279705112E-3</v>
+      </c>
+      <c r="G59" s="61">
+        <f t="shared" si="10"/>
+        <v>1.5401192982458234E-2</v>
+      </c>
+      <c r="H59" s="61">
+        <f t="shared" si="10"/>
+        <v>1.0129659141213443E-2</v>
+      </c>
+      <c r="I59" s="61">
+        <f t="shared" si="10"/>
+        <v>1.3213187898090117E-2</v>
+      </c>
+      <c r="J59" s="61">
+        <f t="shared" si="10"/>
+        <v>-5.6044135802451045E-3</v>
+      </c>
+      <c r="K59" s="61">
+        <f t="shared" si="10"/>
+        <v>-1.8277080924853917E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B60" s="61">
+        <f t="shared" ref="B60:K60" si="11">B30/B46-1</f>
+        <v>-8.9898486377383291E-3</v>
+      </c>
+      <c r="C60" s="61">
+        <f t="shared" si="11"/>
+        <v>4.8539890710403988E-3</v>
+      </c>
+      <c r="D60" s="61" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E60" s="61" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60" s="61">
+        <f t="shared" si="11"/>
+        <v>-2.983714585517161E-3</v>
+      </c>
+      <c r="G60" s="61">
+        <f t="shared" si="11"/>
+        <v>1.1699960140679533E-2</v>
+      </c>
+      <c r="H60" s="61">
+        <f t="shared" si="11"/>
+        <v>-4.474220382416183E-3</v>
+      </c>
+      <c r="I60" s="61">
+        <f t="shared" si="11"/>
+        <v>2.9274963396803688E-3</v>
+      </c>
+      <c r="J60" s="61">
+        <f t="shared" si="11"/>
+        <v>-4.0405166051654673E-3</v>
+      </c>
+      <c r="K60" s="61">
+        <f t="shared" si="11"/>
+        <v>1.6358539571492692E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B61" s="61">
+        <f t="shared" ref="B61:K61" si="12">B31/B47-1</f>
+        <v>2.5514285714298701E-3</v>
+      </c>
+      <c r="C61" s="61">
+        <f t="shared" si="12"/>
+        <v>3.9449241379312383E-2</v>
+      </c>
+      <c r="D61" s="61" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E61" s="61" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61" s="61">
+        <f t="shared" si="12"/>
+        <v>-1.2229545454538471E-3</v>
+      </c>
+      <c r="G61" s="61">
+        <f t="shared" si="12"/>
+        <v>3.6279920398014642E-3</v>
+      </c>
+      <c r="H61" s="61">
+        <f t="shared" si="12"/>
+        <v>2.5481853972804114E-3</v>
+      </c>
+      <c r="I61" s="61">
+        <f t="shared" si="12"/>
+        <v>1.116852941176516E-2</v>
+      </c>
+      <c r="J61" s="61">
+        <f t="shared" si="12"/>
+        <v>-2.7675919732427223E-3</v>
+      </c>
+      <c r="K61" s="61">
+        <f t="shared" si="12"/>
+        <v>2.7615102608696818E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B62" s="61">
+        <f t="shared" ref="B62:K62" si="13">B32/B48-1</f>
+        <v>-3.3402671118526461E-3</v>
+      </c>
+      <c r="C62" s="61">
+        <f t="shared" si="13"/>
+        <v>4.8984777327939266E-2</v>
+      </c>
+      <c r="D62" s="61" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E62" s="61" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62" s="61">
+        <f t="shared" si="13"/>
+        <v>-7.4853886010356474E-3</v>
+      </c>
+      <c r="G62" s="61">
+        <f t="shared" si="13"/>
+        <v>-2.5012014324083953E-3</v>
+      </c>
+      <c r="H62" s="61">
+        <f t="shared" si="13"/>
+        <v>-2.1759644255872068E-3</v>
+      </c>
+      <c r="I62" s="61">
+        <f t="shared" si="13"/>
+        <v>-5.0980198019756617E-4</v>
+      </c>
+      <c r="J62" s="61">
+        <f t="shared" si="13"/>
+        <v>-5.2635294117634457E-3</v>
+      </c>
+      <c r="K62" s="61">
+        <f t="shared" si="13"/>
+        <v>1.0547224080269313E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B63" s="61">
+        <f t="shared" ref="B63:K63" si="14">B33/B49-1</f>
+        <v>3.2621532567047584E-3</v>
+      </c>
+      <c r="C63" s="61">
+        <f t="shared" si="14"/>
+        <v>6.8686238532122967E-3</v>
+      </c>
+      <c r="D63" s="61" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E63" s="61" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="61">
+        <f t="shared" si="14"/>
+        <v>-5.2697297297285006E-3</v>
+      </c>
+      <c r="G63" s="61">
+        <f t="shared" si="14"/>
+        <v>-5.5179797979777456E-3</v>
+      </c>
+      <c r="H63" s="61">
+        <f t="shared" si="14"/>
+        <v>-2.2682632677398784E-3</v>
+      </c>
+      <c r="I63" s="61">
+        <f t="shared" si="14"/>
+        <v>-6.400136226033637E-3</v>
+      </c>
+      <c r="J63" s="61">
+        <f t="shared" si="14"/>
+        <v>-6.6532192737430718E-3</v>
+      </c>
+      <c r="K63" s="61">
+        <f t="shared" si="14"/>
+        <v>1.063289817232449E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B64" s="61">
+        <f t="shared" ref="B64:K64" si="15">B34/B50-1</f>
+        <v>-2.3099361249108163E-3</v>
+      </c>
+      <c r="C64" s="61">
+        <f t="shared" si="15"/>
+        <v>5.5253932584271137E-2</v>
+      </c>
+      <c r="D64" s="61" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="61" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="61">
+        <f t="shared" si="15"/>
+        <v>-1.9573548861115952E-3</v>
+      </c>
+      <c r="G64" s="61">
+        <f t="shared" si="15"/>
+        <v>3.1309260493059821E-3</v>
+      </c>
+      <c r="H64" s="61">
+        <f t="shared" si="15"/>
+        <v>2.9193669304472536E-4</v>
+      </c>
+      <c r="I64" s="61">
+        <f t="shared" si="15"/>
+        <v>3.6880263157897497E-2</v>
+      </c>
+      <c r="J64" s="61">
+        <f t="shared" si="15"/>
+        <v>-1.1745879299154272E-3</v>
+      </c>
+      <c r="K64" s="61">
+        <f t="shared" si="15"/>
+        <v>1.5178809207094801E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B65" s="61">
+        <f t="shared" ref="B65:K65" si="16">B35/B51-1</f>
+        <v>2.6627218940866726E-6</v>
+      </c>
+      <c r="C65" s="61">
+        <f t="shared" si="16"/>
+        <v>6.6435683453241134E-2</v>
+      </c>
+      <c r="D65" s="61" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E65" s="61" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="61">
+        <f t="shared" si="16"/>
+        <v>-8.1522123893762455E-4</v>
+      </c>
+      <c r="G65" s="61">
+        <f t="shared" si="16"/>
+        <v>6.1395207481027558E-3</v>
+      </c>
+      <c r="H65" s="61">
+        <f t="shared" si="16"/>
+        <v>-4.6504889002945138E-3</v>
+      </c>
+      <c r="I65" s="61">
+        <f t="shared" si="16"/>
+        <v>1.7692931242460741E-2</v>
+      </c>
+      <c r="J65" s="61">
+        <f t="shared" si="16"/>
+        <v>-3.2717657657647115E-3</v>
+      </c>
+      <c r="K65" s="61">
+        <f t="shared" si="16"/>
+        <v>2.7945445007959702E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B66" s="61">
+        <f t="shared" ref="B66:K66" si="17">B36/B52-1</f>
+        <v>-4.1793700305799986E-3</v>
+      </c>
+      <c r="C66" s="61">
+        <f t="shared" si="17"/>
+        <v>3.0030082644628475E-2</v>
+      </c>
+      <c r="D66" s="61" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E66" s="61" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="61">
+        <f t="shared" si="17"/>
+        <v>1.1461596958188824E-3</v>
+      </c>
+      <c r="G66" s="61">
+        <f t="shared" si="17"/>
+        <v>3.8422068965529022E-3</v>
+      </c>
+      <c r="H66" s="61">
+        <f t="shared" si="17"/>
+        <v>-6.1655499820849613E-3</v>
+      </c>
+      <c r="I66" s="61">
+        <f t="shared" si="17"/>
+        <v>1.4128977968178802E-2</v>
+      </c>
+      <c r="J66" s="61">
+        <f t="shared" si="17"/>
+        <v>1.0383063163785788E-3</v>
+      </c>
+      <c r="K66" s="61">
+        <f t="shared" si="17"/>
+        <v>4.1917245838081207E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B67" s="61">
+        <f t="shared" ref="B67:K67" si="18">B37/B53-1</f>
+        <v>-2.3895281933250523E-5</v>
+      </c>
+      <c r="C67" s="61">
+        <f t="shared" si="18"/>
+        <v>0.11734912000000097</v>
+      </c>
+      <c r="D67" s="61" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E67" s="61" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F67" s="61">
+        <f t="shared" si="18"/>
+        <v>-1.2820964860029704E-3</v>
+      </c>
+      <c r="G67" s="61">
+        <f t="shared" si="18"/>
+        <v>9.7124695567478714E-3</v>
+      </c>
+      <c r="H67" s="61">
+        <f t="shared" si="18"/>
+        <v>-7.8063420667917605E-4</v>
+      </c>
+      <c r="I67" s="61">
+        <f t="shared" si="18"/>
+        <v>1.7362079081634452E-2</v>
+      </c>
+      <c r="J67" s="61">
+        <f t="shared" si="18"/>
+        <v>-2.8220662460562984E-3</v>
+      </c>
+      <c r="K67" s="61">
+        <f t="shared" si="18"/>
+        <v>1.1516020482813527E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B68" s="61">
+        <f t="shared" ref="B68:K68" si="19">B38/B54-1</f>
+        <v>-3.2011183144243782E-3</v>
+      </c>
+      <c r="C68" s="61">
+        <f t="shared" si="19"/>
+        <v>-1.1753479999999095E-2</v>
+      </c>
+      <c r="D68" s="61" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E68" s="61" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F68" s="61">
+        <f t="shared" si="19"/>
+        <v>-3.7167114093958897E-3</v>
+      </c>
+      <c r="G68" s="61">
+        <f t="shared" si="19"/>
+        <v>4.7356679982257788E-3</v>
+      </c>
+      <c r="H68" s="61">
+        <f t="shared" si="19"/>
+        <v>-2.0237182326261483E-3</v>
+      </c>
+      <c r="I68" s="61">
+        <f t="shared" si="19"/>
+        <v>1.3610531088087408E-2</v>
+      </c>
+      <c r="J68" s="61">
+        <f t="shared" si="19"/>
+        <v>2.4406574394473246E-3</v>
+      </c>
+      <c r="K68" s="61">
+        <f t="shared" si="19"/>
+        <v>4.7590191810662485E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:V29"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -22996,791 +25336,950 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B9" s="36">
-        <v>330.35</v>
+        <v>298.82400000000001</v>
       </c>
       <c r="C9" s="36">
-        <v>5520.99</v>
+        <v>3145.68</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="36">
-        <v>330.28300000000002</v>
+        <v>297.505</v>
       </c>
       <c r="G9" s="36">
-        <v>43.888399999999997</v>
+        <v>35.054400000000001</v>
       </c>
       <c r="H9" s="36">
-        <v>329.73200000000003</v>
+        <v>296.94900000000001</v>
       </c>
       <c r="I9" s="36">
-        <v>5.2243500000000003</v>
+        <v>4.9323399999999999</v>
       </c>
       <c r="J9" s="3">
-        <v>326.84199999999998</v>
+        <v>296.07</v>
       </c>
       <c r="K9" s="4">
-        <v>0.211173</v>
+        <v>2.6277399999999999E-2</v>
       </c>
       <c r="N9" s="3">
         <f>B9</f>
-        <v>330.35</v>
+        <v>298.82400000000001</v>
       </c>
       <c r="O9" s="21">
         <f>C9*100</f>
-        <v>552099</v>
+        <v>314568</v>
       </c>
       <c r="P9" s="3">
         <f>F9</f>
-        <v>330.28300000000002</v>
+        <v>297.505</v>
       </c>
       <c r="Q9" s="17">
         <f>G9*0.000001</f>
-        <v>4.3888399999999998E-5</v>
+        <v>3.5054400000000001E-5</v>
       </c>
       <c r="R9" s="3">
         <f>H9</f>
-        <v>329.73200000000003</v>
+        <v>296.94900000000001</v>
       </c>
       <c r="S9" s="24">
         <f>I9</f>
-        <v>5.2243500000000003</v>
+        <v>4.9323399999999999</v>
       </c>
       <c r="T9" s="3">
         <f>J9</f>
-        <v>326.84199999999998</v>
-      </c>
-      <c r="U9" s="24">
+        <v>296.07</v>
+      </c>
+      <c r="U9" s="56">
         <f>K9</f>
-        <v>0.211173</v>
-      </c>
-      <c r="V9" s="22">
+        <v>2.6277399999999999E-2</v>
+      </c>
+      <c r="V9" s="37">
         <f>((O9*(Q9)^2)/S9)*T9</f>
-        <v>6.6530693800433985E-2</v>
+        <v>2.3202833028165455E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B10" s="3">
-        <v>372.44499999999999</v>
+        <v>325.88200000000001</v>
       </c>
       <c r="C10" s="4">
-        <v>4575.7</v>
+        <v>2948.15</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3">
-        <v>371.786</v>
+        <v>324.012</v>
       </c>
       <c r="G10" s="4">
-        <v>51.293799999999997</v>
+        <v>37.604700000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>373.52600000000001</v>
+        <v>325.14699999999999</v>
       </c>
       <c r="I10" s="4">
-        <v>4.6590199999999999</v>
+        <v>4.79</v>
       </c>
       <c r="J10" s="3">
-        <v>369.47399999999999</v>
+        <v>318.34100000000001</v>
       </c>
       <c r="K10" s="4">
-        <v>0.25810100000000002</v>
+        <v>2.6277399999999999E-2</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" ref="N10:N20" si="0">B10</f>
-        <v>372.44499999999999</v>
+        <v>325.88200000000001</v>
       </c>
       <c r="O10" s="21">
         <f t="shared" ref="O10:O20" si="1">C10*100</f>
-        <v>457570</v>
+        <v>294815</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" ref="P10:P20" si="2">F10</f>
-        <v>371.786</v>
+        <v>324.012</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" ref="Q10:Q20" si="3">G10*0.000001</f>
-        <v>5.1293799999999993E-5</v>
+        <v>3.7604700000000003E-5</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" ref="R10:U20" si="4">H10</f>
-        <v>373.52600000000001</v>
+        <f t="shared" ref="R10:U26" si="4">H10</f>
+        <v>325.14699999999999</v>
       </c>
       <c r="S10" s="24">
         <f t="shared" si="4"/>
-        <v>4.6590199999999999</v>
+        <v>4.79</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="4"/>
-        <v>369.47399999999999</v>
+        <v>318.34100000000001</v>
       </c>
       <c r="U10" s="24">
         <f t="shared" si="4"/>
-        <v>0.25810100000000002</v>
-      </c>
-      <c r="V10" s="22">
-        <f t="shared" ref="V10:V20" si="5">((O10*(Q10)^2)/S10)*T10</f>
-        <v>9.5472127077112834E-2</v>
+        <v>2.6277399999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B11" s="2">
-        <v>419.59899999999999</v>
+        <v>369.41199999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>3695.44</v>
+        <v>2651.85</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2">
-        <v>419.38200000000001</v>
+        <v>367.06900000000002</v>
       </c>
       <c r="G11" s="1">
-        <v>61.572200000000002</v>
+        <v>45.229900000000001</v>
       </c>
       <c r="H11" s="2">
-        <v>422.18</v>
+        <v>374.21100000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>4.0736100000000004</v>
+        <v>4.6943000000000001</v>
       </c>
       <c r="J11" s="2">
-        <v>418.42099999999999</v>
+        <v>343.23099999999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0.33631299999999997</v>
+        <v>2.91971E-2</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>419.59899999999999</v>
+        <v>369.41199999999998</v>
       </c>
       <c r="O11" s="21">
         <f t="shared" si="1"/>
-        <v>369544</v>
+        <v>265185</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>419.38200000000001</v>
+        <v>367.06900000000002</v>
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="3"/>
-        <v>6.15722E-5</v>
+        <v>4.5229899999999999E-5</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" si="4"/>
-        <v>422.18</v>
+        <v>374.21100000000001</v>
       </c>
       <c r="S11" s="24">
         <f t="shared" si="4"/>
-        <v>4.0736100000000004</v>
+        <v>4.6943000000000001</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="4"/>
-        <v>418.42099999999999</v>
+        <v>343.23099999999999</v>
       </c>
       <c r="U11" s="24">
         <f t="shared" si="4"/>
-        <v>0.33631299999999997</v>
-      </c>
-      <c r="V11" s="22">
-        <f t="shared" si="5"/>
-        <v>0.14390289237735027</v>
+        <v>2.91971E-2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B12" s="2">
-        <v>465.44600000000003</v>
+        <v>416.471</v>
       </c>
       <c r="C12" s="1">
-        <v>2965.94</v>
+        <v>2335.8000000000002</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2">
-        <v>465.76299999999998</v>
+        <v>417.85300000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>70.6203</v>
+        <v>54.548299999999998</v>
       </c>
       <c r="H12" s="2">
-        <v>467.18799999999999</v>
+        <v>423.26100000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>3.5083199999999999</v>
+        <v>4.5042</v>
       </c>
       <c r="J12" s="2">
-        <v>467.36799999999999</v>
+        <v>370.74200000000002</v>
       </c>
       <c r="K12" s="1">
-        <v>0.41843599999999997</v>
+        <v>3.7956200000000002E-2</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>465.44600000000003</v>
+        <v>416.471</v>
       </c>
       <c r="O12" s="21">
         <f t="shared" si="1"/>
-        <v>296594</v>
+        <v>233580.00000000003</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
-        <v>465.76299999999998</v>
+        <v>417.85300000000001</v>
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="3"/>
-        <v>7.0620299999999992E-5</v>
+        <v>5.4548299999999994E-5</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" si="4"/>
-        <v>467.18799999999999</v>
+        <v>423.26100000000002</v>
       </c>
       <c r="S12" s="24">
         <f t="shared" si="4"/>
-        <v>3.5083199999999999</v>
+        <v>4.5042</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="4"/>
-        <v>467.36799999999999</v>
+        <v>370.74200000000002</v>
       </c>
       <c r="U12" s="24">
         <f t="shared" si="4"/>
-        <v>0.41843599999999997</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="5"/>
-        <v>0.1970521835799966</v>
+        <v>3.7956200000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B13" s="2">
-        <v>518.85599999999999</v>
+        <v>469.41199999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>2430.9699999999998</v>
+        <v>2079.0100000000002</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2">
-        <v>517.01400000000001</v>
+        <v>467.52600000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>82.540599999999998</v>
+        <v>65.131699999999995</v>
       </c>
       <c r="H13" s="2">
-        <v>518.24599999999998</v>
+        <v>473.53199999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>3.1254300000000002</v>
+        <v>4.28261</v>
       </c>
       <c r="J13" s="2">
-        <v>516.31600000000003</v>
+        <v>393.01299999999998</v>
       </c>
       <c r="K13" s="1">
-        <v>0.53184399999999998</v>
+        <v>4.6715300000000001E-2</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>518.85599999999999</v>
+        <v>469.41199999999998</v>
       </c>
       <c r="O13" s="21">
         <f t="shared" si="1"/>
-        <v>243096.99999999997</v>
+        <v>207901.00000000003</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
-        <v>517.01400000000001</v>
+        <v>467.52600000000001</v>
       </c>
       <c r="Q13" s="17">
         <f t="shared" si="3"/>
-        <v>8.2540599999999994E-5</v>
+        <v>6.5131699999999992E-5</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="4"/>
-        <v>518.24599999999998</v>
+        <v>473.53199999999998</v>
       </c>
       <c r="S13" s="24">
         <f t="shared" si="4"/>
-        <v>3.1254300000000002</v>
+        <v>4.28261</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="4"/>
-        <v>516.31600000000003</v>
+        <v>393.01299999999998</v>
       </c>
       <c r="U13" s="24">
         <f t="shared" si="4"/>
-        <v>0.53184399999999998</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="5"/>
-        <v>0.27360287044898296</v>
+        <v>4.6715300000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B14" s="2">
-        <v>565.87599999999998</v>
+        <v>515.29399999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>2089.5100000000002</v>
+        <v>1802.47</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2">
-        <v>563.39800000000002</v>
+        <v>518.29300000000001</v>
       </c>
       <c r="G14" s="1">
-        <v>91.178899999999999</v>
+        <v>77.825699999999998</v>
       </c>
       <c r="H14" s="2">
-        <v>565.649</v>
+        <v>525.01099999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>2.84362</v>
+        <v>3.9350999999999998</v>
       </c>
       <c r="J14" s="2">
-        <v>563.68399999999997</v>
+        <v>419.214</v>
       </c>
       <c r="K14" s="1">
-        <v>0.59832399999999997</v>
+        <v>6.1313899999999998E-2</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>565.87599999999998</v>
+        <v>515.29399999999998</v>
       </c>
       <c r="O14" s="21">
         <f t="shared" si="1"/>
-        <v>208951.00000000003</v>
+        <v>180247</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
-        <v>563.39800000000002</v>
+        <v>518.29300000000001</v>
       </c>
       <c r="Q14" s="17">
         <f t="shared" si="3"/>
-        <v>9.1178899999999995E-5</v>
+        <v>7.7825699999999989E-5</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="4"/>
-        <v>565.649</v>
+        <v>525.01099999999997</v>
       </c>
       <c r="S14" s="24">
         <f t="shared" si="4"/>
-        <v>2.84362</v>
+        <v>3.9350999999999998</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="4"/>
-        <v>563.68399999999997</v>
+        <v>419.214</v>
       </c>
       <c r="U14" s="24">
         <f t="shared" si="4"/>
-        <v>0.59832399999999997</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="5"/>
-        <v>0.34434778876160571</v>
+        <v>6.1313899999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B15" s="2">
-        <v>620.50099999999998</v>
+        <v>558.82399999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>1770.14</v>
+        <v>1723.46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2">
-        <v>613.41700000000003</v>
+        <v>562.44500000000005</v>
       </c>
       <c r="G15" s="1">
-        <v>104.738</v>
+        <v>87.561300000000003</v>
       </c>
       <c r="H15" s="2">
-        <v>619.12900000000002</v>
+        <v>574.04499999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>2.5215299999999998</v>
+        <v>3.6505999999999998</v>
       </c>
       <c r="J15" s="2">
-        <v>615.78899999999999</v>
+        <v>440.17500000000001</v>
       </c>
       <c r="K15" s="1">
-        <v>0.76648000000000005</v>
+        <v>7.8832100000000002E-2</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="0"/>
-        <v>620.50099999999998</v>
+        <v>558.82399999999996</v>
       </c>
       <c r="O15" s="21">
         <f t="shared" si="1"/>
-        <v>177014</v>
+        <v>172346</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>613.41700000000003</v>
+        <v>562.44500000000005</v>
       </c>
       <c r="Q15" s="17">
         <f t="shared" si="3"/>
-        <v>1.04738E-4</v>
+        <v>8.7561300000000005E-5</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="4"/>
-        <v>619.12900000000002</v>
+        <v>574.04499999999996</v>
       </c>
       <c r="S15" s="24">
         <f t="shared" si="4"/>
-        <v>2.5215299999999998</v>
+        <v>3.6505999999999998</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="4"/>
-        <v>615.78899999999999</v>
+        <v>440.17500000000001</v>
       </c>
       <c r="U15" s="24">
         <f t="shared" si="4"/>
-        <v>0.76648000000000005</v>
-      </c>
-      <c r="V15" s="22">
-        <f t="shared" si="5"/>
-        <v>0.47422446635173199</v>
+        <v>7.8832100000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="B16" s="2">
-        <v>666.23</v>
+        <v>614.11800000000005</v>
       </c>
       <c r="C16" s="1">
-        <v>1514.8</v>
+        <v>1644.44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2">
-        <v>665.851</v>
+        <v>608.77499999999998</v>
       </c>
       <c r="G16" s="1">
-        <v>123.21599999999999</v>
+        <v>104.05</v>
       </c>
       <c r="H16" s="2">
-        <v>666.52200000000005</v>
+        <v>621.85199999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>2.3207</v>
+        <v>3.36612</v>
       </c>
       <c r="J16" s="2">
-        <v>666.31600000000003</v>
+        <v>466.37599999999998</v>
       </c>
       <c r="K16" s="1">
-        <v>0.94636900000000002</v>
+        <v>8.4671499999999997E-2</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>666.23</v>
+        <v>614.11800000000005</v>
       </c>
       <c r="O16" s="21">
         <f t="shared" si="1"/>
-        <v>151480</v>
+        <v>164444</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>665.851</v>
+        <v>608.77499999999998</v>
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="3"/>
-        <v>1.2321599999999999E-4</v>
+        <v>1.0404999999999999E-4</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="4"/>
-        <v>666.52200000000005</v>
+        <v>621.85199999999998</v>
       </c>
       <c r="S16" s="24">
         <f t="shared" si="4"/>
-        <v>2.3207</v>
+        <v>3.36612</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="4"/>
-        <v>666.31600000000003</v>
+        <v>466.37599999999998</v>
       </c>
       <c r="U16" s="24">
         <f t="shared" si="4"/>
-        <v>0.94636900000000002</v>
-      </c>
-      <c r="V16" s="22">
-        <f t="shared" si="5"/>
-        <v>0.66031436936951982</v>
+        <v>8.4671499999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.6">
       <c r="B17" s="2">
-        <v>720.85500000000002</v>
+        <v>664.70600000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1195.44</v>
+        <v>1525.93</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2">
-        <v>719.51099999999997</v>
+        <v>663.96799999999996</v>
       </c>
       <c r="G17" s="1">
-        <v>140.876</v>
+        <v>115.48099999999999</v>
       </c>
       <c r="H17" s="2">
-        <v>717.55399999999997</v>
+        <v>672.11900000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>2.1604800000000002</v>
+        <v>3.1130599999999999</v>
       </c>
       <c r="J17" s="2">
-        <v>718.42100000000005</v>
+        <v>493.88600000000002</v>
       </c>
       <c r="K17" s="1">
-        <v>1.0324</v>
+        <v>0.108029</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>720.85500000000002</v>
+        <v>664.70600000000002</v>
       </c>
       <c r="O17" s="21">
         <f t="shared" si="1"/>
-        <v>119544</v>
+        <v>152593</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>719.51099999999997</v>
+        <v>663.96799999999996</v>
       </c>
       <c r="Q17" s="17">
         <f t="shared" si="3"/>
-        <v>1.4087600000000001E-4</v>
+        <v>1.1548099999999999E-4</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="4"/>
-        <v>717.55399999999997</v>
+        <v>672.11900000000003</v>
       </c>
       <c r="S17" s="24">
         <f t="shared" si="4"/>
-        <v>2.1604800000000002</v>
+        <v>3.1130599999999999</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="4"/>
-        <v>718.42100000000005</v>
+        <v>493.88600000000002</v>
       </c>
       <c r="U17" s="24">
         <f t="shared" si="4"/>
-        <v>1.0324</v>
-      </c>
-      <c r="V17" s="22">
-        <f t="shared" si="5"/>
-        <v>0.78891565743979264</v>
-      </c>
+        <v>0.108029</v>
+      </c>
+      <c r="V17"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.6">
       <c r="B18" s="2">
-        <v>771.64300000000003</v>
+        <v>708.23500000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1005.11</v>
+        <v>1387.65</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2">
-        <v>774.41600000000005</v>
+        <v>710.31200000000001</v>
       </c>
       <c r="G18" s="1">
-        <v>154.84800000000001</v>
+        <v>129.01599999999999</v>
       </c>
       <c r="H18" s="2">
-        <v>769.78499999999997</v>
+        <v>724.83399999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>2.12175</v>
+        <v>2.8284600000000002</v>
       </c>
       <c r="J18" s="2">
-        <v>775.26300000000003</v>
+        <v>514.84699999999998</v>
       </c>
       <c r="K18" s="1">
-        <v>1.1184400000000001</v>
+        <v>0.131387</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>771.64300000000003</v>
+        <v>708.23500000000001</v>
       </c>
       <c r="O18" s="21">
         <f t="shared" si="1"/>
-        <v>100511</v>
+        <v>138765</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>774.41600000000005</v>
+        <v>710.31200000000001</v>
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="3"/>
-        <v>1.5484800000000002E-4</v>
+        <v>1.2901599999999997E-4</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="4"/>
-        <v>769.78499999999997</v>
+        <v>724.83399999999995</v>
       </c>
       <c r="S18" s="24">
         <f t="shared" si="4"/>
-        <v>2.12175</v>
+        <v>2.8284600000000002</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="4"/>
-        <v>775.26300000000003</v>
+        <v>514.84699999999998</v>
       </c>
       <c r="U18" s="24">
         <f t="shared" si="4"/>
-        <v>1.1184400000000001</v>
-      </c>
-      <c r="V18" s="22">
-        <f t="shared" si="5"/>
-        <v>0.88060194695450877</v>
-      </c>
+        <v>0.131387</v>
+      </c>
+      <c r="V18"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.6">
       <c r="B19" s="2">
-        <v>823.67700000000002</v>
+        <v>760</v>
       </c>
       <c r="C19" s="1">
-        <v>901.08799999999997</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2">
-        <v>821.98400000000004</v>
+        <v>754.44899999999996</v>
       </c>
       <c r="G19" s="1">
-        <v>169.63499999999999</v>
+        <v>141.70500000000001</v>
       </c>
       <c r="H19" s="2">
-        <v>822.02200000000005</v>
+        <v>773.87400000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>2.0425399999999998</v>
+        <v>2.5754199999999998</v>
       </c>
       <c r="J19" s="2">
-        <v>821.053</v>
+        <v>538.428</v>
       </c>
       <c r="K19" s="1">
-        <v>1.23184</v>
+        <v>0.15182499999999999</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>823.67700000000002</v>
+        <v>760</v>
       </c>
       <c r="O19" s="21">
         <f t="shared" si="1"/>
-        <v>90108.800000000003</v>
+        <v>122963.00000000001</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>821.98400000000004</v>
+        <v>754.44899999999996</v>
       </c>
       <c r="Q19" s="17">
         <f t="shared" si="3"/>
-        <v>1.6963499999999998E-4</v>
+        <v>1.41705E-4</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="4"/>
-        <v>822.02200000000005</v>
+        <v>773.87400000000002</v>
       </c>
       <c r="S19" s="24">
         <f t="shared" si="4"/>
-        <v>2.0425399999999998</v>
+        <v>2.5754199999999998</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="4"/>
-        <v>821.053</v>
+        <v>538.428</v>
       </c>
       <c r="U19" s="24">
         <f t="shared" si="4"/>
-        <v>1.23184</v>
-      </c>
-      <c r="V19" s="22">
-        <f t="shared" si="5"/>
-        <v>1.0423144398741113</v>
-      </c>
+        <v>0.15182499999999999</v>
+      </c>
+      <c r="V19"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.6">
       <c r="B20" s="35">
-        <v>874.44299999999998</v>
+        <v>854.11800000000005</v>
       </c>
       <c r="C20" s="35">
-        <v>796.97299999999996</v>
+        <v>1091.3599999999999</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="35">
-        <v>873.21299999999997</v>
+        <v>851.53399999999999</v>
       </c>
       <c r="G20" s="35">
-        <v>185.24299999999999</v>
-      </c>
-      <c r="H20" s="35">
-        <v>875.46799999999996</v>
-      </c>
-      <c r="I20" s="35">
-        <v>2.00386</v>
-      </c>
-      <c r="J20" s="35">
-        <v>877.89499999999998</v>
-      </c>
-      <c r="K20" s="35">
-        <v>1.32961</v>
+        <v>173.41900000000001</v>
+      </c>
+      <c r="H20" s="2">
+        <v>824.15</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.3852899999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>560.69899999999996</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.18978100000000001</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="0"/>
-        <v>874.44299999999998</v>
+        <v>854.11800000000005</v>
       </c>
       <c r="O20" s="21">
         <f t="shared" si="1"/>
-        <v>79697.299999999988</v>
+        <v>109135.99999999999</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>873.21299999999997</v>
+        <v>851.53399999999999</v>
       </c>
       <c r="Q20" s="17">
         <f t="shared" si="3"/>
-        <v>1.8524299999999997E-4</v>
+        <v>1.7341900000000001E-4</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="4"/>
-        <v>875.46799999999996</v>
+        <v>824.15</v>
       </c>
       <c r="S20" s="24">
         <f t="shared" si="4"/>
-        <v>2.00386</v>
+        <v>2.3852899999999999</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="4"/>
-        <v>877.89499999999998</v>
+        <v>560.69899999999996</v>
       </c>
       <c r="U20" s="24">
         <f t="shared" si="4"/>
-        <v>1.32961</v>
-      </c>
-      <c r="V20" s="22">
-        <f t="shared" si="5"/>
-        <v>1.1981257977096362</v>
-      </c>
+        <v>0.18978100000000001</v>
+      </c>
+      <c r="V20"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="35">
+        <v>871.98199999999997</v>
+      </c>
+      <c r="I21" s="35">
+        <v>2.2581600000000002</v>
+      </c>
+      <c r="J21" s="2">
+        <v>589.52</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.25109500000000001</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="3">
+        <f t="shared" si="4"/>
+        <v>871.98199999999997</v>
+      </c>
+      <c r="S21" s="24">
+        <f t="shared" si="4"/>
+        <v>2.2581600000000002</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="4"/>
+        <v>589.52</v>
+      </c>
+      <c r="U21" s="24">
+        <f t="shared" si="4"/>
+        <v>0.25109500000000001</v>
+      </c>
       <c r="V21"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2">
+        <v>610.48</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.30656899999999998</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="3">
+        <f t="shared" si="4"/>
+        <v>610.48</v>
+      </c>
+      <c r="U22" s="24">
+        <f t="shared" si="4"/>
+        <v>0.30656899999999998</v>
+      </c>
       <c r="V22"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="O23"/>
-      <c r="Q23"/>
-      <c r="S23"/>
-      <c r="U23"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2">
+        <v>661.572</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.40583900000000001</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="3">
+        <f t="shared" si="4"/>
+        <v>661.572</v>
+      </c>
+      <c r="U23" s="24">
+        <f t="shared" si="4"/>
+        <v>0.40583900000000001</v>
+      </c>
       <c r="V23"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="O24"/>
-      <c r="Q24"/>
-      <c r="S24"/>
-      <c r="U24"/>
-      <c r="V24"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2">
+        <v>710.04399999999998</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.54598500000000005</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="3">
+        <f t="shared" si="4"/>
+        <v>710.04399999999998</v>
+      </c>
+      <c r="U24" s="24">
+        <f t="shared" si="4"/>
+        <v>0.54598500000000005</v>
+      </c>
+      <c r="V24" s="22">
+        <f>((O18*(Q18)^2)/S18)*T24</f>
+        <v>0.57983216924719205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2">
+        <v>758.51499999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.718248</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="3">
+        <f t="shared" si="4"/>
+        <v>758.51499999999999</v>
+      </c>
+      <c r="U25" s="24">
+        <f t="shared" si="4"/>
+        <v>0.718248</v>
+      </c>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="35">
+        <v>854.14800000000002</v>
+      </c>
+      <c r="K26" s="35">
+        <v>1.1591199999999999</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="3">
+        <f t="shared" si="4"/>
+        <v>854.14800000000002</v>
+      </c>
+      <c r="U26" s="24">
+        <f t="shared" si="4"/>
+        <v>1.1591199999999999</v>
+      </c>
+      <c r="V26" s="22">
+        <f>((O20*(Q20)^2)/S20)*T26</f>
+        <v>1.1753124272415763</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="O28"/>
+      <c r="Q28"/>
+      <c r="S28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="O29"/>
+      <c r="Q29"/>
+      <c r="S29"/>
+      <c r="U29"/>
+      <c r="V29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23788,14 +26287,1902 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="15" max="15" width="9" style="18"/>
+    <col min="17" max="17" width="10.5" style="14" customWidth="1"/>
+    <col min="19" max="19" width="9" style="22"/>
+    <col min="21" max="21" width="9" style="22"/>
+    <col min="22" max="22" width="13.0625" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B9" s="36">
+        <v>293.75</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1838.17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="36">
+        <v>296.25299999999999</v>
+      </c>
+      <c r="G9" s="36">
+        <v>98.069000000000003</v>
+      </c>
+      <c r="H9" s="36">
+        <v>305.22699999999998</v>
+      </c>
+      <c r="I9" s="36">
+        <v>3.4903400000000002</v>
+      </c>
+      <c r="J9" s="36">
+        <v>298.077</v>
+      </c>
+      <c r="K9" s="36">
+        <v>8.6338200000000004E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <f>B9</f>
+        <v>293.75</v>
+      </c>
+      <c r="O9" s="21">
+        <f>C9*100</f>
+        <v>183817</v>
+      </c>
+      <c r="P9" s="3">
+        <f>F9</f>
+        <v>296.25299999999999</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>G9*0.000001</f>
+        <v>9.8068999999999999E-5</v>
+      </c>
+      <c r="R9" s="3">
+        <f>H9</f>
+        <v>305.22699999999998</v>
+      </c>
+      <c r="S9" s="24">
+        <f>I9</f>
+        <v>3.4903400000000002</v>
+      </c>
+      <c r="T9" s="3">
+        <f>J9</f>
+        <v>298.077</v>
+      </c>
+      <c r="U9" s="24">
+        <f>K9</f>
+        <v>8.6338200000000004E-2</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" ref="V9:V19" si="0">((O9*(Q9)^2)/S9)*T9</f>
+        <v>0.15097669004641029</v>
+      </c>
+      <c r="W9" s="39">
+        <f>U9/V9-1</f>
+        <v>-0.42813556202974368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B10" s="3">
+        <v>318.75</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1875.52</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3">
+        <v>318.94200000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>104.643</v>
+      </c>
+      <c r="H10" s="3">
+        <v>325.988</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.47092</v>
+      </c>
+      <c r="J10" s="3">
+        <v>322.50299999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.105896</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N20" si="1">B10</f>
+        <v>318.75</v>
+      </c>
+      <c r="O10" s="21">
+        <f t="shared" ref="O10:O20" si="2">C10*100</f>
+        <v>187552</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10:P20" si="3">F10</f>
+        <v>318.94200000000001</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" ref="Q10:Q20" si="4">G10*0.000001</f>
+        <v>1.0464299999999999E-4</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" ref="R10:U20" si="5">H10</f>
+        <v>325.988</v>
+      </c>
+      <c r="S10" s="24">
+        <f t="shared" si="5"/>
+        <v>3.47092</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="5"/>
+        <v>322.50299999999999</v>
+      </c>
+      <c r="U10" s="24">
+        <f t="shared" si="5"/>
+        <v>0.105896</v>
+      </c>
+      <c r="V10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.19082321936444172</v>
+      </c>
+      <c r="W10" s="39">
+        <f t="shared" ref="W10:W20" si="6">U10/V10-1</f>
+        <v>-0.44505705148095398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B11" s="2">
+        <v>367.18799999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1863.07</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
+        <v>362.97300000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>109.408</v>
+      </c>
+      <c r="H11" s="2">
+        <v>373.18099999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.3920400000000002</v>
+      </c>
+      <c r="J11" s="2">
+        <v>366.30200000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.24499000000000001</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>367.18799999999999</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="2"/>
+        <v>186307</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>362.97300000000001</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0940799999999999E-4</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="5"/>
+        <v>373.18099999999998</v>
+      </c>
+      <c r="S11" s="24">
+        <f t="shared" si="5"/>
+        <v>3.3920400000000002</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="5"/>
+        <v>366.30200000000002</v>
+      </c>
+      <c r="U11" s="24">
+        <f t="shared" si="5"/>
+        <v>0.24499000000000001</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.24082726628843568</v>
+      </c>
+      <c r="W11" s="39">
+        <f t="shared" si="6"/>
+        <v>1.7285142898141315E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B12" s="2">
+        <v>418.75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1800.83</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>414.10700000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>114.90600000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>424.12400000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.3937499999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>413.50900000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.292431</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>418.75</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="2"/>
+        <v>180083</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="3"/>
+        <v>414.10700000000003</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="4"/>
+        <v>1.14906E-4</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="5"/>
+        <v>424.12400000000002</v>
+      </c>
+      <c r="S12" s="24">
+        <f t="shared" si="5"/>
+        <v>3.3937499999999998</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="5"/>
+        <v>413.50900000000001</v>
+      </c>
+      <c r="U12" s="24">
+        <f t="shared" si="5"/>
+        <v>0.292431</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2897098423050819</v>
+      </c>
+      <c r="W12" s="39">
+        <f t="shared" si="6"/>
+        <v>9.3927002039941865E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B13" s="2">
+        <v>462.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1713.69</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
+        <v>466.63600000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>123.321</v>
+      </c>
+      <c r="H13" s="2">
+        <v>476.96499999999997</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.3552900000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>463.95100000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.35655500000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>462.5</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="2"/>
+        <v>171369</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="3"/>
+        <v>466.63600000000002</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2332099999999999E-4</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="5"/>
+        <v>476.96499999999997</v>
+      </c>
+      <c r="S13" s="24">
+        <f t="shared" si="5"/>
+        <v>3.3552900000000001</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="5"/>
+        <v>463.95100000000002</v>
+      </c>
+      <c r="U13" s="24">
+        <f t="shared" si="5"/>
+        <v>0.35655500000000001</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.36036980152250236</v>
+      </c>
+      <c r="W13" s="39">
+        <f t="shared" si="6"/>
+        <v>-1.0585796885270171E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B14" s="2">
+        <v>510.93799999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1639</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
+        <v>510.69200000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>125.53400000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>527.92600000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.2966500000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>509.52699999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.40398899999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>510.93799999999999</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="2"/>
+        <v>163900</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>510.69200000000001</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2553400000000001E-4</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="5"/>
+        <v>527.92600000000004</v>
+      </c>
+      <c r="S14" s="24">
+        <f t="shared" si="5"/>
+        <v>3.2966500000000001</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="5"/>
+        <v>509.52699999999999</v>
+      </c>
+      <c r="U14" s="24">
+        <f t="shared" si="5"/>
+        <v>0.40398899999999999</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.39920507100034913</v>
+      </c>
+      <c r="W14" s="39">
+        <f t="shared" si="6"/>
+        <v>1.1983637852252205E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B15" s="2">
+        <v>560.93799999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1576.76</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>561.82899999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <v>130.66800000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>575.11300000000006</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.2378900000000002</v>
+      </c>
+      <c r="J15" s="2">
+        <v>559.98599999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.45700099999999999</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="1"/>
+        <v>560.93799999999999</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="2"/>
+        <v>157676</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>561.82899999999995</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="4"/>
+        <v>1.3066799999999999E-4</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="5"/>
+        <v>575.11300000000006</v>
+      </c>
+      <c r="S15" s="24">
+        <f t="shared" si="5"/>
+        <v>3.2378900000000002</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="5"/>
+        <v>559.98599999999999</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="5"/>
+        <v>0.45700099999999999</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.46560663528361562</v>
+      </c>
+      <c r="W15" s="39">
+        <f t="shared" si="6"/>
+        <v>-1.848263025369834E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.6">
+      <c r="B16" s="2">
+        <v>610.93799999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1464.73</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <v>607.28200000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <v>135.43299999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>622.30600000000004</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.1590099999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>605.54499999999996</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.51554599999999995</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>610.93799999999999</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="2"/>
+        <v>146473</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="3"/>
+        <v>607.28200000000004</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="4"/>
+        <v>1.3543299999999999E-4</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="5"/>
+        <v>622.30600000000004</v>
+      </c>
+      <c r="S16" s="24">
+        <f t="shared" si="5"/>
+        <v>3.1590099999999999</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="5"/>
+        <v>605.54499999999996</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="5"/>
+        <v>0.51554599999999995</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.51499379443120152</v>
+      </c>
+      <c r="W16" s="39">
+        <f t="shared" si="6"/>
+        <v>1.0722567432259744E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B17" s="2">
+        <v>654.68799999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1439.83</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>656.98800000000006</v>
+      </c>
+      <c r="G17" s="1">
+        <v>141.65899999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>673.279</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.0601500000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>657.58500000000004</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.59912100000000001</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>654.68799999999999</v>
+      </c>
+      <c r="O17" s="21">
+        <f t="shared" si="2"/>
+        <v>143983</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="3"/>
+        <v>656.98800000000006</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="4"/>
+        <v>1.4165899999999998E-4</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="5"/>
+        <v>673.279</v>
+      </c>
+      <c r="S17" s="24">
+        <f t="shared" si="5"/>
+        <v>3.0601500000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="5"/>
+        <v>657.58500000000004</v>
+      </c>
+      <c r="U17" s="24">
+        <f t="shared" si="5"/>
+        <v>0.59912100000000001</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.62088153588702177</v>
+      </c>
+      <c r="W17" s="39">
+        <f t="shared" si="6"/>
+        <v>-3.5047806432081385E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B18" s="2">
+        <v>709.375</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1390.04</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
+        <v>710.95500000000004</v>
+      </c>
+      <c r="G18" s="1">
+        <v>148.25299999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>728.01300000000003</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.0016400000000001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>706.32100000000003</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.71045999999999998</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>709.375</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="2"/>
+        <v>139004</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="3"/>
+        <v>710.95500000000004</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="4"/>
+        <v>1.4825299999999999E-4</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="5"/>
+        <v>728.01300000000003</v>
+      </c>
+      <c r="S18" s="24">
+        <f t="shared" si="5"/>
+        <v>3.0016400000000001</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="5"/>
+        <v>706.32100000000003</v>
+      </c>
+      <c r="U18" s="24">
+        <f t="shared" si="5"/>
+        <v>0.71045999999999998</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.71891541027316508</v>
+      </c>
+      <c r="W18" s="39">
+        <f t="shared" si="6"/>
+        <v>-1.176134236704196E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B19" s="2">
+        <v>807.81299999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1228.22</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
+        <v>806.09400000000005</v>
+      </c>
+      <c r="G19" s="1">
+        <v>161.43100000000001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>831.83299999999997</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.8441999999999998</v>
+      </c>
+      <c r="J19" s="2">
+        <v>805.49300000000005</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.88869900000000002</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>807.81299999999999</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="2"/>
+        <v>122822</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="3"/>
+        <v>806.09400000000005</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="4"/>
+        <v>1.6143099999999999E-4</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="5"/>
+        <v>831.83299999999997</v>
+      </c>
+      <c r="S19" s="24">
+        <f t="shared" si="5"/>
+        <v>2.8441999999999998</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="5"/>
+        <v>805.49300000000005</v>
+      </c>
+      <c r="U19" s="24">
+        <f t="shared" si="5"/>
+        <v>0.88869900000000002</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.90646633098712803</v>
+      </c>
+      <c r="W19" s="39">
+        <f t="shared" si="6"/>
+        <v>-1.9600651871735431E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="B20" s="35">
+        <v>853.125</v>
+      </c>
+      <c r="C20" s="35">
+        <v>1091.29</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="35">
+        <v>852.95600000000002</v>
+      </c>
+      <c r="G20" s="35">
+        <v>167.655</v>
+      </c>
+      <c r="H20" s="35">
+        <v>875.23500000000001</v>
+      </c>
+      <c r="I20" s="35">
+        <v>2.8255400000000002</v>
+      </c>
+      <c r="J20" s="35">
+        <v>854.27700000000004</v>
+      </c>
+      <c r="K20" s="35">
+        <v>0.96948199999999995</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="1"/>
+        <v>853.125</v>
+      </c>
+      <c r="O20" s="21">
+        <f t="shared" si="2"/>
+        <v>109129</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="3"/>
+        <v>852.95600000000002</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" si="4"/>
+        <v>1.6765500000000001E-4</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="5"/>
+        <v>875.23500000000001</v>
+      </c>
+      <c r="S20" s="24">
+        <f t="shared" si="5"/>
+        <v>2.8255400000000002</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="5"/>
+        <v>854.27700000000004</v>
+      </c>
+      <c r="U20" s="24">
+        <f t="shared" si="5"/>
+        <v>0.96948199999999995</v>
+      </c>
+      <c r="V20" s="22">
+        <f>((O20*(Q20)^2)/S20)*T20</f>
+        <v>0.9274071708552617</v>
+      </c>
+      <c r="W20" s="39">
+        <f t="shared" si="6"/>
+        <v>4.5368237886209695E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="O23"/>
+      <c r="Q23"/>
+      <c r="S23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.6">
+      <c r="O24"/>
+      <c r="Q24"/>
+      <c r="S24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="15" max="15" width="9" style="18"/>
+    <col min="17" max="17" width="10.5" style="14" customWidth="1"/>
+    <col min="19" max="19" width="9" style="22"/>
+    <col min="21" max="21" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B9" s="36">
+        <v>296.48599999999999</v>
+      </c>
+      <c r="C9" s="36">
+        <v>3889.73</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="36">
+        <v>296.93700000000001</v>
+      </c>
+      <c r="G9" s="36">
+        <v>28.604900000000001</v>
+      </c>
+      <c r="H9" s="36">
+        <v>302.34300000000002</v>
+      </c>
+      <c r="I9" s="36">
+        <v>5.1115599999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>297.55500000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.6496199999999999E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <f>B9</f>
+        <v>296.48599999999999</v>
+      </c>
+      <c r="O9" s="21">
+        <f>C9*100</f>
+        <v>388973</v>
+      </c>
+      <c r="P9" s="3">
+        <f>F9</f>
+        <v>296.93700000000001</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>G9*0.000001</f>
+        <v>2.8604899999999998E-5</v>
+      </c>
+      <c r="R9" s="3">
+        <f>H9</f>
+        <v>302.34300000000002</v>
+      </c>
+      <c r="S9" s="24">
+        <f>I9</f>
+        <v>5.1115599999999999</v>
+      </c>
+      <c r="T9" s="3">
+        <f>J9</f>
+        <v>297.55500000000001</v>
+      </c>
+      <c r="U9" s="24">
+        <f>K9</f>
+        <v>1.6496199999999999E-2</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" ref="V9:V19" si="0">((O9*(Q9)^2)/S9)*T9</f>
+        <v>1.8527384458617867E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B10" s="3">
+        <v>342.11500000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3753.07</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3">
+        <v>342.39100000000002</v>
+      </c>
+      <c r="G10" s="4">
+        <v>34.352600000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>349.91300000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5.1101700000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>341.815</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.8318699999999999E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N19" si="1">B10</f>
+        <v>342.11500000000001</v>
+      </c>
+      <c r="O10" s="21">
+        <f t="shared" ref="O10:O19" si="2">C10*100</f>
+        <v>375307</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10:P19" si="3">F10</f>
+        <v>342.39100000000002</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" ref="Q10:Q19" si="4">G10*0.000001</f>
+        <v>3.43526E-5</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" ref="R10:U19" si="5">H10</f>
+        <v>349.91300000000001</v>
+      </c>
+      <c r="S10" s="24">
+        <f t="shared" si="5"/>
+        <v>5.1101700000000001</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="5"/>
+        <v>341.815</v>
+      </c>
+      <c r="U10" s="24">
+        <f t="shared" si="5"/>
+        <v>2.8318699999999999E-2</v>
+      </c>
+      <c r="V10" s="22">
+        <f t="shared" si="0"/>
+        <v>2.9625225091368893E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B11" s="2">
+        <v>387.79199999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3340.1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
+        <v>392.10700000000003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>40.542900000000003</v>
+      </c>
+      <c r="H11" s="2">
+        <v>400.51299999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.9328000000000003</v>
+      </c>
+      <c r="J11" s="2">
+        <v>388.40800000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.7820100000000002E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>387.79199999999997</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="2"/>
+        <v>334010</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>392.10700000000003</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="4"/>
+        <v>4.0542900000000001E-5</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="5"/>
+        <v>400.51299999999998</v>
+      </c>
+      <c r="S11" s="24">
+        <f t="shared" si="5"/>
+        <v>4.9328000000000003</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="5"/>
+        <v>388.40800000000002</v>
+      </c>
+      <c r="U11" s="24">
+        <f t="shared" si="5"/>
+        <v>3.7820100000000002E-2</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="0"/>
+        <v>4.3229852019084448E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B12" s="2">
+        <v>436.32499999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2887.75</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>436.12200000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>48.487299999999998</v>
+      </c>
+      <c r="H12" s="2">
+        <v>448.02800000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.6851799999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>436.14699999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6.5966899999999995E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>436.32499999999999</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="2"/>
+        <v>288775</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="3"/>
+        <v>436.12200000000001</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="4"/>
+        <v>4.8487299999999992E-5</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="5"/>
+        <v>448.02800000000002</v>
+      </c>
+      <c r="S12" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6851799999999999</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="5"/>
+        <v>436.14699999999999</v>
+      </c>
+      <c r="U12" s="24">
+        <f t="shared" si="5"/>
+        <v>6.5966899999999995E-2</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="0"/>
+        <v>6.320074589514553E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B13" s="2">
+        <v>484.84199999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2534.08</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
+        <v>485.78699999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>61.271099999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <v>498.6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.3846999999999996</v>
+      </c>
+      <c r="J13" s="2">
+        <v>485.04300000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.103439</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>484.84199999999998</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="2"/>
+        <v>253408</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="3"/>
+        <v>485.78699999999998</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="4"/>
+        <v>6.1271099999999997E-5</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="5"/>
+        <v>498.6</v>
+      </c>
+      <c r="S13" s="24">
+        <f t="shared" si="5"/>
+        <v>4.3846999999999996</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="5"/>
+        <v>485.04300000000001</v>
+      </c>
+      <c r="U13" s="24">
+        <f t="shared" si="5"/>
+        <v>0.103439</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1052378659708109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B14" s="2">
+        <v>531.92700000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2219.84</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
+        <v>532.61800000000005</v>
+      </c>
+      <c r="G14" s="1">
+        <v>72.734099999999998</v>
+      </c>
+      <c r="H14" s="2">
+        <v>549.15700000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.0138699999999998</v>
+      </c>
+      <c r="J14" s="2">
+        <v>531.59900000000005</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.15022199999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>531.92700000000002</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="2"/>
+        <v>221984</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>532.61800000000005</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="4"/>
+        <v>7.2734099999999992E-5</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="5"/>
+        <v>549.15700000000004</v>
+      </c>
+      <c r="S14" s="24">
+        <f t="shared" si="5"/>
+        <v>4.0138699999999998</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="5"/>
+        <v>531.59900000000005</v>
+      </c>
+      <c r="U14" s="24">
+        <f t="shared" si="5"/>
+        <v>0.15022199999999999</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15553160875310146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B15" s="2">
+        <v>583.29100000000005</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1886.01</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>579.423</v>
+      </c>
+      <c r="G15" s="1">
+        <v>87.7136</v>
+      </c>
+      <c r="H15" s="2">
+        <v>599.71699999999998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.6606299999999998</v>
+      </c>
+      <c r="J15" s="2">
+        <v>579.30499999999995</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.21332000000000001</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="1"/>
+        <v>583.29100000000005</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="2"/>
+        <v>188601</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>579.423</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="4"/>
+        <v>8.7713599999999993E-5</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="5"/>
+        <v>599.71699999999998</v>
+      </c>
+      <c r="S15" s="24">
+        <f t="shared" si="5"/>
+        <v>3.6606299999999998</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="5"/>
+        <v>579.30499999999995</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="5"/>
+        <v>0.21332000000000001</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2296303593447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
+      <c r="B16" s="2">
+        <v>628.94299999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1611.19</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <v>629.02700000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <v>108.41</v>
+      </c>
+      <c r="H16" s="2">
+        <v>648.73199999999997</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.25467</v>
+      </c>
+      <c r="J16" s="2">
+        <v>630.45399999999995</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.33002399999999998</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>628.94299999999998</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="2"/>
+        <v>161119</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="3"/>
+        <v>629.02700000000004</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0840999999999999E-4</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="5"/>
+        <v>648.73199999999997</v>
+      </c>
+      <c r="S16" s="24">
+        <f t="shared" si="5"/>
+        <v>3.25467</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="5"/>
+        <v>630.45399999999995</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="5"/>
+        <v>0.33002399999999998</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.36680216491050904</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="B17" s="2">
+        <v>677.45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1316.74</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>672.99800000000005</v>
+      </c>
+      <c r="G17" s="1">
+        <v>122.068</v>
+      </c>
+      <c r="H17" s="2">
+        <v>700.83500000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.9365600000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>679.29100000000005</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.42807899999999999</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>677.45</v>
+      </c>
+      <c r="O17" s="21">
+        <f t="shared" si="2"/>
+        <v>131674</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="3"/>
+        <v>672.99800000000005</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="4"/>
+        <v>1.22068E-4</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="5"/>
+        <v>700.83500000000004</v>
+      </c>
+      <c r="S17" s="24">
+        <f t="shared" si="5"/>
+        <v>2.9365600000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="5"/>
+        <v>679.29100000000005</v>
+      </c>
+      <c r="U17" s="24">
+        <f t="shared" si="5"/>
+        <v>0.42807899999999999</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.45385870396255651</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="B18" s="2">
+        <v>725.93600000000004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1140.7</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
+        <v>721.16700000000003</v>
+      </c>
+      <c r="G18" s="1">
+        <v>144.52099999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>749.86500000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.6009600000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <v>723.39700000000005</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.59834900000000002</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>725.93600000000004</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="2"/>
+        <v>114070</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="3"/>
+        <v>721.16700000000003</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="4"/>
+        <v>1.4452099999999997E-4</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="5"/>
+        <v>749.86500000000001</v>
+      </c>
+      <c r="S18" s="24">
+        <f t="shared" si="5"/>
+        <v>2.6009600000000002</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="5"/>
+        <v>723.39700000000005</v>
+      </c>
+      <c r="U18" s="24">
+        <f t="shared" si="5"/>
+        <v>0.59834900000000002</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.66263807635222693</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="B19" s="35">
+        <v>852.83699999999999</v>
+      </c>
+      <c r="C19" s="35">
+        <v>789.61</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="35">
+        <v>851.66600000000005</v>
+      </c>
+      <c r="G19" s="35">
+        <v>184.61699999999999</v>
+      </c>
+      <c r="H19" s="35">
+        <v>875.55799999999999</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1.98169</v>
+      </c>
+      <c r="J19" s="2">
+        <v>849.98199999999997</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.01593</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>852.83699999999999</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="2"/>
+        <v>78961</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="3"/>
+        <v>851.66600000000005</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="4"/>
+        <v>1.8461699999999998E-4</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="5"/>
+        <v>875.55799999999999</v>
+      </c>
+      <c r="S19" s="24">
+        <f t="shared" si="5"/>
+        <v>1.98169</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="5"/>
+        <v>849.98199999999997</v>
+      </c>
+      <c r="U19" s="24">
+        <f t="shared" si="5"/>
+        <v>1.01593</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="0"/>
+        <v>1.1543301248024211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="O22"/>
+      <c r="Q22"/>
+      <c r="S22"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.6">
+      <c r="O23"/>
+      <c r="Q23"/>
+      <c r="S23"/>
+      <c r="U23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:V34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -23905,3009 +28292,6 @@
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B9" s="36">
-        <v>298.82400000000001</v>
-      </c>
-      <c r="C9" s="36">
-        <v>3145.68</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="36">
-        <v>297.505</v>
-      </c>
-      <c r="G9" s="36">
-        <v>35.054400000000001</v>
-      </c>
-      <c r="H9" s="36">
-        <v>296.94900000000001</v>
-      </c>
-      <c r="I9" s="36">
-        <v>4.9323399999999999</v>
-      </c>
-      <c r="J9" s="3">
-        <v>296.07</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2.6277399999999999E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <f>B9</f>
-        <v>298.82400000000001</v>
-      </c>
-      <c r="O9" s="21">
-        <f>C9*100</f>
-        <v>314568</v>
-      </c>
-      <c r="P9" s="3">
-        <f>F9</f>
-        <v>297.505</v>
-      </c>
-      <c r="Q9" s="17">
-        <f>G9*0.000001</f>
-        <v>3.5054400000000001E-5</v>
-      </c>
-      <c r="R9" s="3">
-        <f>H9</f>
-        <v>296.94900000000001</v>
-      </c>
-      <c r="S9" s="24">
-        <f>I9</f>
-        <v>4.9323399999999999</v>
-      </c>
-      <c r="T9" s="3">
-        <f>J9</f>
-        <v>296.07</v>
-      </c>
-      <c r="U9" s="56">
-        <f>K9</f>
-        <v>2.6277399999999999E-2</v>
-      </c>
-      <c r="V9" s="37">
-        <f>((O9*(Q9)^2)/S9)*T9</f>
-        <v>2.3202833028165455E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B10" s="3">
-        <v>325.88200000000001</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2948.15</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3">
-        <v>324.012</v>
-      </c>
-      <c r="G10" s="4">
-        <v>37.604700000000001</v>
-      </c>
-      <c r="H10" s="3">
-        <v>325.14699999999999</v>
-      </c>
-      <c r="I10" s="4">
-        <v>4.79</v>
-      </c>
-      <c r="J10" s="3">
-        <v>318.34100000000001</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2.6277399999999999E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10:N20" si="0">B10</f>
-        <v>325.88200000000001</v>
-      </c>
-      <c r="O10" s="21">
-        <f t="shared" ref="O10:O20" si="1">C10*100</f>
-        <v>294815</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" ref="P10:P20" si="2">F10</f>
-        <v>324.012</v>
-      </c>
-      <c r="Q10" s="17">
-        <f t="shared" ref="Q10:Q20" si="3">G10*0.000001</f>
-        <v>3.7604700000000003E-5</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" ref="R10:U26" si="4">H10</f>
-        <v>325.14699999999999</v>
-      </c>
-      <c r="S10" s="24">
-        <f t="shared" si="4"/>
-        <v>4.79</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" si="4"/>
-        <v>318.34100000000001</v>
-      </c>
-      <c r="U10" s="24">
-        <f t="shared" si="4"/>
-        <v>2.6277399999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B11" s="2">
-        <v>369.41199999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2651.85</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2">
-        <v>367.06900000000002</v>
-      </c>
-      <c r="G11" s="1">
-        <v>45.229900000000001</v>
-      </c>
-      <c r="H11" s="2">
-        <v>374.21100000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4.6943000000000001</v>
-      </c>
-      <c r="J11" s="2">
-        <v>343.23099999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.91971E-2</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="0"/>
-        <v>369.41199999999998</v>
-      </c>
-      <c r="O11" s="21">
-        <f t="shared" si="1"/>
-        <v>265185</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="2"/>
-        <v>367.06900000000002</v>
-      </c>
-      <c r="Q11" s="17">
-        <f t="shared" si="3"/>
-        <v>4.5229899999999999E-5</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="4"/>
-        <v>374.21100000000001</v>
-      </c>
-      <c r="S11" s="24">
-        <f t="shared" si="4"/>
-        <v>4.6943000000000001</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" si="4"/>
-        <v>343.23099999999999</v>
-      </c>
-      <c r="U11" s="24">
-        <f t="shared" si="4"/>
-        <v>2.91971E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B12" s="2">
-        <v>416.471</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2335.8000000000002</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2">
-        <v>417.85300000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>54.548299999999998</v>
-      </c>
-      <c r="H12" s="2">
-        <v>423.26100000000002</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4.5042</v>
-      </c>
-      <c r="J12" s="2">
-        <v>370.74200000000002</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3.7956200000000002E-2</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="0"/>
-        <v>416.471</v>
-      </c>
-      <c r="O12" s="21">
-        <f t="shared" si="1"/>
-        <v>233580.00000000003</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="2"/>
-        <v>417.85300000000001</v>
-      </c>
-      <c r="Q12" s="17">
-        <f t="shared" si="3"/>
-        <v>5.4548299999999994E-5</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="4"/>
-        <v>423.26100000000002</v>
-      </c>
-      <c r="S12" s="24">
-        <f t="shared" si="4"/>
-        <v>4.5042</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" si="4"/>
-        <v>370.74200000000002</v>
-      </c>
-      <c r="U12" s="24">
-        <f t="shared" si="4"/>
-        <v>3.7956200000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B13" s="2">
-        <v>469.41199999999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2079.0100000000002</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2">
-        <v>467.52600000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>65.131699999999995</v>
-      </c>
-      <c r="H13" s="2">
-        <v>473.53199999999998</v>
-      </c>
-      <c r="I13" s="1">
-        <v>4.28261</v>
-      </c>
-      <c r="J13" s="2">
-        <v>393.01299999999998</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4.6715300000000001E-2</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="0"/>
-        <v>469.41199999999998</v>
-      </c>
-      <c r="O13" s="21">
-        <f t="shared" si="1"/>
-        <v>207901.00000000003</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="2"/>
-        <v>467.52600000000001</v>
-      </c>
-      <c r="Q13" s="17">
-        <f t="shared" si="3"/>
-        <v>6.5131699999999992E-5</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="4"/>
-        <v>473.53199999999998</v>
-      </c>
-      <c r="S13" s="24">
-        <f t="shared" si="4"/>
-        <v>4.28261</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" si="4"/>
-        <v>393.01299999999998</v>
-      </c>
-      <c r="U13" s="24">
-        <f t="shared" si="4"/>
-        <v>4.6715300000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B14" s="2">
-        <v>515.29399999999998</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1802.47</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2">
-        <v>518.29300000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>77.825699999999998</v>
-      </c>
-      <c r="H14" s="2">
-        <v>525.01099999999997</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3.9350999999999998</v>
-      </c>
-      <c r="J14" s="2">
-        <v>419.214</v>
-      </c>
-      <c r="K14" s="1">
-        <v>6.1313899999999998E-2</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="0"/>
-        <v>515.29399999999998</v>
-      </c>
-      <c r="O14" s="21">
-        <f t="shared" si="1"/>
-        <v>180247</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="2"/>
-        <v>518.29300000000001</v>
-      </c>
-      <c r="Q14" s="17">
-        <f t="shared" si="3"/>
-        <v>7.7825699999999989E-5</v>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="4"/>
-        <v>525.01099999999997</v>
-      </c>
-      <c r="S14" s="24">
-        <f t="shared" si="4"/>
-        <v>3.9350999999999998</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" si="4"/>
-        <v>419.214</v>
-      </c>
-      <c r="U14" s="24">
-        <f t="shared" si="4"/>
-        <v>6.1313899999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B15" s="2">
-        <v>558.82399999999996</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1723.46</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
-        <v>562.44500000000005</v>
-      </c>
-      <c r="G15" s="1">
-        <v>87.561300000000003</v>
-      </c>
-      <c r="H15" s="2">
-        <v>574.04499999999996</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3.6505999999999998</v>
-      </c>
-      <c r="J15" s="2">
-        <v>440.17500000000001</v>
-      </c>
-      <c r="K15" s="1">
-        <v>7.8832100000000002E-2</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="0"/>
-        <v>558.82399999999996</v>
-      </c>
-      <c r="O15" s="21">
-        <f t="shared" si="1"/>
-        <v>172346</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="2"/>
-        <v>562.44500000000005</v>
-      </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="3"/>
-        <v>8.7561300000000005E-5</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="4"/>
-        <v>574.04499999999996</v>
-      </c>
-      <c r="S15" s="24">
-        <f t="shared" si="4"/>
-        <v>3.6505999999999998</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" si="4"/>
-        <v>440.17500000000001</v>
-      </c>
-      <c r="U15" s="24">
-        <f t="shared" si="4"/>
-        <v>7.8832100000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B16" s="2">
-        <v>614.11800000000005</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1644.44</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2">
-        <v>608.77499999999998</v>
-      </c>
-      <c r="G16" s="1">
-        <v>104.05</v>
-      </c>
-      <c r="H16" s="2">
-        <v>621.85199999999998</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.36612</v>
-      </c>
-      <c r="J16" s="2">
-        <v>466.37599999999998</v>
-      </c>
-      <c r="K16" s="1">
-        <v>8.4671499999999997E-2</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="0"/>
-        <v>614.11800000000005</v>
-      </c>
-      <c r="O16" s="21">
-        <f t="shared" si="1"/>
-        <v>164444</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="2"/>
-        <v>608.77499999999998</v>
-      </c>
-      <c r="Q16" s="17">
-        <f t="shared" si="3"/>
-        <v>1.0404999999999999E-4</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="4"/>
-        <v>621.85199999999998</v>
-      </c>
-      <c r="S16" s="24">
-        <f t="shared" si="4"/>
-        <v>3.36612</v>
-      </c>
-      <c r="T16" s="3">
-        <f t="shared" si="4"/>
-        <v>466.37599999999998</v>
-      </c>
-      <c r="U16" s="24">
-        <f t="shared" si="4"/>
-        <v>8.4671499999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B17" s="2">
-        <v>664.70600000000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1525.93</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2">
-        <v>663.96799999999996</v>
-      </c>
-      <c r="G17" s="1">
-        <v>115.48099999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>672.11900000000003</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.1130599999999999</v>
-      </c>
-      <c r="J17" s="2">
-        <v>493.88600000000002</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.108029</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="0"/>
-        <v>664.70600000000002</v>
-      </c>
-      <c r="O17" s="21">
-        <f t="shared" si="1"/>
-        <v>152593</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="2"/>
-        <v>663.96799999999996</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="3"/>
-        <v>1.1548099999999999E-4</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="4"/>
-        <v>672.11900000000003</v>
-      </c>
-      <c r="S17" s="24">
-        <f t="shared" si="4"/>
-        <v>3.1130599999999999</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" si="4"/>
-        <v>493.88600000000002</v>
-      </c>
-      <c r="U17" s="24">
-        <f t="shared" si="4"/>
-        <v>0.108029</v>
-      </c>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B18" s="2">
-        <v>708.23500000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1387.65</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2">
-        <v>710.31200000000001</v>
-      </c>
-      <c r="G18" s="1">
-        <v>129.01599999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>724.83399999999995</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2.8284600000000002</v>
-      </c>
-      <c r="J18" s="2">
-        <v>514.84699999999998</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.131387</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="0"/>
-        <v>708.23500000000001</v>
-      </c>
-      <c r="O18" s="21">
-        <f t="shared" si="1"/>
-        <v>138765</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="2"/>
-        <v>710.31200000000001</v>
-      </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="3"/>
-        <v>1.2901599999999997E-4</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="4"/>
-        <v>724.83399999999995</v>
-      </c>
-      <c r="S18" s="24">
-        <f t="shared" si="4"/>
-        <v>2.8284600000000002</v>
-      </c>
-      <c r="T18" s="3">
-        <f t="shared" si="4"/>
-        <v>514.84699999999998</v>
-      </c>
-      <c r="U18" s="24">
-        <f t="shared" si="4"/>
-        <v>0.131387</v>
-      </c>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B19" s="2">
-        <v>760</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1229.6300000000001</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2">
-        <v>754.44899999999996</v>
-      </c>
-      <c r="G19" s="1">
-        <v>141.70500000000001</v>
-      </c>
-      <c r="H19" s="2">
-        <v>773.87400000000002</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2.5754199999999998</v>
-      </c>
-      <c r="J19" s="2">
-        <v>538.428</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.15182499999999999</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="0"/>
-        <v>760</v>
-      </c>
-      <c r="O19" s="21">
-        <f t="shared" si="1"/>
-        <v>122963.00000000001</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="2"/>
-        <v>754.44899999999996</v>
-      </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="3"/>
-        <v>1.41705E-4</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="4"/>
-        <v>773.87400000000002</v>
-      </c>
-      <c r="S19" s="24">
-        <f t="shared" si="4"/>
-        <v>2.5754199999999998</v>
-      </c>
-      <c r="T19" s="3">
-        <f t="shared" si="4"/>
-        <v>538.428</v>
-      </c>
-      <c r="U19" s="24">
-        <f t="shared" si="4"/>
-        <v>0.15182499999999999</v>
-      </c>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B20" s="35">
-        <v>854.11800000000005</v>
-      </c>
-      <c r="C20" s="35">
-        <v>1091.3599999999999</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="35">
-        <v>851.53399999999999</v>
-      </c>
-      <c r="G20" s="35">
-        <v>173.41900000000001</v>
-      </c>
-      <c r="H20" s="2">
-        <v>824.15</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2.3852899999999999</v>
-      </c>
-      <c r="J20" s="2">
-        <v>560.69899999999996</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.18978100000000001</v>
-      </c>
-      <c r="N20" s="3">
-        <f t="shared" si="0"/>
-        <v>854.11800000000005</v>
-      </c>
-      <c r="O20" s="21">
-        <f t="shared" si="1"/>
-        <v>109135.99999999999</v>
-      </c>
-      <c r="P20" s="3">
-        <f t="shared" si="2"/>
-        <v>851.53399999999999</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" si="3"/>
-        <v>1.7341900000000001E-4</v>
-      </c>
-      <c r="R20" s="3">
-        <f t="shared" si="4"/>
-        <v>824.15</v>
-      </c>
-      <c r="S20" s="24">
-        <f t="shared" si="4"/>
-        <v>2.3852899999999999</v>
-      </c>
-      <c r="T20" s="3">
-        <f t="shared" si="4"/>
-        <v>560.69899999999996</v>
-      </c>
-      <c r="U20" s="24">
-        <f t="shared" si="4"/>
-        <v>0.18978100000000001</v>
-      </c>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="35">
-        <v>871.98199999999997</v>
-      </c>
-      <c r="I21" s="35">
-        <v>2.2581600000000002</v>
-      </c>
-      <c r="J21" s="2">
-        <v>589.52</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.25109500000000001</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="3">
-        <f t="shared" si="4"/>
-        <v>871.98199999999997</v>
-      </c>
-      <c r="S21" s="24">
-        <f t="shared" si="4"/>
-        <v>2.2581600000000002</v>
-      </c>
-      <c r="T21" s="3">
-        <f t="shared" si="4"/>
-        <v>589.52</v>
-      </c>
-      <c r="U21" s="24">
-        <f t="shared" si="4"/>
-        <v>0.25109500000000001</v>
-      </c>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2">
-        <v>610.48</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.30656899999999998</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="3">
-        <f t="shared" si="4"/>
-        <v>610.48</v>
-      </c>
-      <c r="U22" s="24">
-        <f t="shared" si="4"/>
-        <v>0.30656899999999998</v>
-      </c>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2">
-        <v>661.572</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.40583900000000001</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="3">
-        <f t="shared" si="4"/>
-        <v>661.572</v>
-      </c>
-      <c r="U23" s="24">
-        <f t="shared" si="4"/>
-        <v>0.40583900000000001</v>
-      </c>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2">
-        <v>710.04399999999998</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.54598500000000005</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="3">
-        <f t="shared" si="4"/>
-        <v>710.04399999999998</v>
-      </c>
-      <c r="U24" s="24">
-        <f t="shared" si="4"/>
-        <v>0.54598500000000005</v>
-      </c>
-      <c r="V24" s="22">
-        <f>((O18*(Q18)^2)/S18)*T24</f>
-        <v>0.57983216924719205</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2">
-        <v>758.51499999999999</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.718248</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="3">
-        <f t="shared" si="4"/>
-        <v>758.51499999999999</v>
-      </c>
-      <c r="U25" s="24">
-        <f t="shared" si="4"/>
-        <v>0.718248</v>
-      </c>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="35">
-        <v>854.14800000000002</v>
-      </c>
-      <c r="K26" s="35">
-        <v>1.1591199999999999</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="3">
-        <f t="shared" si="4"/>
-        <v>854.14800000000002</v>
-      </c>
-      <c r="U26" s="24">
-        <f t="shared" si="4"/>
-        <v>1.1591199999999999</v>
-      </c>
-      <c r="V26" s="22">
-        <f>((O20*(Q20)^2)/S20)*T26</f>
-        <v>1.1753124272415763</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="O28"/>
-      <c r="Q28"/>
-      <c r="S28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="O29"/>
-      <c r="Q29"/>
-      <c r="S29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:W24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="15" max="15" width="9" style="18"/>
-    <col min="17" max="17" width="10.5" style="14" customWidth="1"/>
-    <col min="19" max="19" width="9" style="22"/>
-    <col min="21" max="21" width="9" style="22"/>
-    <col min="22" max="22" width="13.0625" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="A1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="A2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="A3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="A4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B9" s="36">
-        <v>293.75</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1838.17</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="36">
-        <v>296.25299999999999</v>
-      </c>
-      <c r="G9" s="36">
-        <v>98.069000000000003</v>
-      </c>
-      <c r="H9" s="36">
-        <v>305.22699999999998</v>
-      </c>
-      <c r="I9" s="36">
-        <v>3.4903400000000002</v>
-      </c>
-      <c r="J9" s="36">
-        <v>298.077</v>
-      </c>
-      <c r="K9" s="36">
-        <v>8.6338200000000004E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <f>B9</f>
-        <v>293.75</v>
-      </c>
-      <c r="O9" s="21">
-        <f>C9*100</f>
-        <v>183817</v>
-      </c>
-      <c r="P9" s="3">
-        <f>F9</f>
-        <v>296.25299999999999</v>
-      </c>
-      <c r="Q9" s="17">
-        <f>G9*0.000001</f>
-        <v>9.8068999999999999E-5</v>
-      </c>
-      <c r="R9" s="3">
-        <f>H9</f>
-        <v>305.22699999999998</v>
-      </c>
-      <c r="S9" s="24">
-        <f>I9</f>
-        <v>3.4903400000000002</v>
-      </c>
-      <c r="T9" s="3">
-        <f>J9</f>
-        <v>298.077</v>
-      </c>
-      <c r="U9" s="24">
-        <f>K9</f>
-        <v>8.6338200000000004E-2</v>
-      </c>
-      <c r="V9" s="22">
-        <f t="shared" ref="V9:V19" si="0">((O9*(Q9)^2)/S9)*T9</f>
-        <v>0.15097669004641029</v>
-      </c>
-      <c r="W9" s="39">
-        <f>U9/V9-1</f>
-        <v>-0.42813556202974368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B10" s="3">
-        <v>318.75</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1875.52</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3">
-        <v>318.94200000000001</v>
-      </c>
-      <c r="G10" s="4">
-        <v>104.643</v>
-      </c>
-      <c r="H10" s="3">
-        <v>325.988</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3.47092</v>
-      </c>
-      <c r="J10" s="3">
-        <v>322.50299999999999</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.105896</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10:N20" si="1">B10</f>
-        <v>318.75</v>
-      </c>
-      <c r="O10" s="21">
-        <f t="shared" ref="O10:O20" si="2">C10*100</f>
-        <v>187552</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" ref="P10:P20" si="3">F10</f>
-        <v>318.94200000000001</v>
-      </c>
-      <c r="Q10" s="17">
-        <f t="shared" ref="Q10:Q20" si="4">G10*0.000001</f>
-        <v>1.0464299999999999E-4</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" ref="R10:U20" si="5">H10</f>
-        <v>325.988</v>
-      </c>
-      <c r="S10" s="24">
-        <f t="shared" si="5"/>
-        <v>3.47092</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" si="5"/>
-        <v>322.50299999999999</v>
-      </c>
-      <c r="U10" s="24">
-        <f t="shared" si="5"/>
-        <v>0.105896</v>
-      </c>
-      <c r="V10" s="22">
-        <f t="shared" si="0"/>
-        <v>0.19082321936444172</v>
-      </c>
-      <c r="W10" s="39">
-        <f t="shared" ref="W10:W20" si="6">U10/V10-1</f>
-        <v>-0.44505705148095398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B11" s="2">
-        <v>367.18799999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1863.07</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2">
-        <v>362.97300000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>109.408</v>
-      </c>
-      <c r="H11" s="2">
-        <v>373.18099999999998</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3.3920400000000002</v>
-      </c>
-      <c r="J11" s="2">
-        <v>366.30200000000002</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.24499000000000001</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="1"/>
-        <v>367.18799999999999</v>
-      </c>
-      <c r="O11" s="21">
-        <f t="shared" si="2"/>
-        <v>186307</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="3"/>
-        <v>362.97300000000001</v>
-      </c>
-      <c r="Q11" s="17">
-        <f t="shared" si="4"/>
-        <v>1.0940799999999999E-4</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="5"/>
-        <v>373.18099999999998</v>
-      </c>
-      <c r="S11" s="24">
-        <f t="shared" si="5"/>
-        <v>3.3920400000000002</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" si="5"/>
-        <v>366.30200000000002</v>
-      </c>
-      <c r="U11" s="24">
-        <f t="shared" si="5"/>
-        <v>0.24499000000000001</v>
-      </c>
-      <c r="V11" s="22">
-        <f t="shared" si="0"/>
-        <v>0.24082726628843568</v>
-      </c>
-      <c r="W11" s="39">
-        <f t="shared" si="6"/>
-        <v>1.7285142898141315E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B12" s="2">
-        <v>418.75</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1800.83</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2">
-        <v>414.10700000000003</v>
-      </c>
-      <c r="G12" s="1">
-        <v>114.90600000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>424.12400000000002</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3.3937499999999998</v>
-      </c>
-      <c r="J12" s="2">
-        <v>413.50900000000001</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.292431</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="1"/>
-        <v>418.75</v>
-      </c>
-      <c r="O12" s="21">
-        <f t="shared" si="2"/>
-        <v>180083</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="3"/>
-        <v>414.10700000000003</v>
-      </c>
-      <c r="Q12" s="17">
-        <f t="shared" si="4"/>
-        <v>1.14906E-4</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="5"/>
-        <v>424.12400000000002</v>
-      </c>
-      <c r="S12" s="24">
-        <f t="shared" si="5"/>
-        <v>3.3937499999999998</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" si="5"/>
-        <v>413.50900000000001</v>
-      </c>
-      <c r="U12" s="24">
-        <f t="shared" si="5"/>
-        <v>0.292431</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="0"/>
-        <v>0.2897098423050819</v>
-      </c>
-      <c r="W12" s="39">
-        <f t="shared" si="6"/>
-        <v>9.3927002039941865E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B13" s="2">
-        <v>462.5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1713.69</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2">
-        <v>466.63600000000002</v>
-      </c>
-      <c r="G13" s="1">
-        <v>123.321</v>
-      </c>
-      <c r="H13" s="2">
-        <v>476.96499999999997</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3.3552900000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>463.95100000000002</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.35655500000000001</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="1"/>
-        <v>462.5</v>
-      </c>
-      <c r="O13" s="21">
-        <f t="shared" si="2"/>
-        <v>171369</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="3"/>
-        <v>466.63600000000002</v>
-      </c>
-      <c r="Q13" s="17">
-        <f t="shared" si="4"/>
-        <v>1.2332099999999999E-4</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="5"/>
-        <v>476.96499999999997</v>
-      </c>
-      <c r="S13" s="24">
-        <f t="shared" si="5"/>
-        <v>3.3552900000000001</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" si="5"/>
-        <v>463.95100000000002</v>
-      </c>
-      <c r="U13" s="24">
-        <f t="shared" si="5"/>
-        <v>0.35655500000000001</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="0"/>
-        <v>0.36036980152250236</v>
-      </c>
-      <c r="W13" s="39">
-        <f t="shared" si="6"/>
-        <v>-1.0585796885270171E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B14" s="2">
-        <v>510.93799999999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1639</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2">
-        <v>510.69200000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>125.53400000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>527.92600000000004</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3.2966500000000001</v>
-      </c>
-      <c r="J14" s="2">
-        <v>509.52699999999999</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.40398899999999999</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="1"/>
-        <v>510.93799999999999</v>
-      </c>
-      <c r="O14" s="21">
-        <f t="shared" si="2"/>
-        <v>163900</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="3"/>
-        <v>510.69200000000001</v>
-      </c>
-      <c r="Q14" s="17">
-        <f t="shared" si="4"/>
-        <v>1.2553400000000001E-4</v>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="5"/>
-        <v>527.92600000000004</v>
-      </c>
-      <c r="S14" s="24">
-        <f t="shared" si="5"/>
-        <v>3.2966500000000001</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" si="5"/>
-        <v>509.52699999999999</v>
-      </c>
-      <c r="U14" s="24">
-        <f t="shared" si="5"/>
-        <v>0.40398899999999999</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="0"/>
-        <v>0.39920507100034913</v>
-      </c>
-      <c r="W14" s="39">
-        <f t="shared" si="6"/>
-        <v>1.1983637852252205E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B15" s="2">
-        <v>560.93799999999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1576.76</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
-        <v>561.82899999999995</v>
-      </c>
-      <c r="G15" s="1">
-        <v>130.66800000000001</v>
-      </c>
-      <c r="H15" s="2">
-        <v>575.11300000000006</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3.2378900000000002</v>
-      </c>
-      <c r="J15" s="2">
-        <v>559.98599999999999</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.45700099999999999</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="1"/>
-        <v>560.93799999999999</v>
-      </c>
-      <c r="O15" s="21">
-        <f t="shared" si="2"/>
-        <v>157676</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="3"/>
-        <v>561.82899999999995</v>
-      </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="4"/>
-        <v>1.3066799999999999E-4</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="5"/>
-        <v>575.11300000000006</v>
-      </c>
-      <c r="S15" s="24">
-        <f t="shared" si="5"/>
-        <v>3.2378900000000002</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" si="5"/>
-        <v>559.98599999999999</v>
-      </c>
-      <c r="U15" s="24">
-        <f t="shared" si="5"/>
-        <v>0.45700099999999999</v>
-      </c>
-      <c r="V15" s="22">
-        <f t="shared" si="0"/>
-        <v>0.46560663528361562</v>
-      </c>
-      <c r="W15" s="39">
-        <f t="shared" si="6"/>
-        <v>-1.848263025369834E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="B16" s="2">
-        <v>610.93799999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1464.73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2">
-        <v>607.28200000000004</v>
-      </c>
-      <c r="G16" s="1">
-        <v>135.43299999999999</v>
-      </c>
-      <c r="H16" s="2">
-        <v>622.30600000000004</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.1590099999999999</v>
-      </c>
-      <c r="J16" s="2">
-        <v>605.54499999999996</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.51554599999999995</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="1"/>
-        <v>610.93799999999999</v>
-      </c>
-      <c r="O16" s="21">
-        <f t="shared" si="2"/>
-        <v>146473</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="3"/>
-        <v>607.28200000000004</v>
-      </c>
-      <c r="Q16" s="17">
-        <f t="shared" si="4"/>
-        <v>1.3543299999999999E-4</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="5"/>
-        <v>622.30600000000004</v>
-      </c>
-      <c r="S16" s="24">
-        <f t="shared" si="5"/>
-        <v>3.1590099999999999</v>
-      </c>
-      <c r="T16" s="3">
-        <f t="shared" si="5"/>
-        <v>605.54499999999996</v>
-      </c>
-      <c r="U16" s="24">
-        <f t="shared" si="5"/>
-        <v>0.51554599999999995</v>
-      </c>
-      <c r="V16" s="22">
-        <f t="shared" si="0"/>
-        <v>0.51499379443120152</v>
-      </c>
-      <c r="W16" s="39">
-        <f t="shared" si="6"/>
-        <v>1.0722567432259744E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B17" s="2">
-        <v>654.68799999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1439.83</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2">
-        <v>656.98800000000006</v>
-      </c>
-      <c r="G17" s="1">
-        <v>141.65899999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>673.279</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.0601500000000001</v>
-      </c>
-      <c r="J17" s="2">
-        <v>657.58500000000004</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.59912100000000001</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="1"/>
-        <v>654.68799999999999</v>
-      </c>
-      <c r="O17" s="21">
-        <f t="shared" si="2"/>
-        <v>143983</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="3"/>
-        <v>656.98800000000006</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="4"/>
-        <v>1.4165899999999998E-4</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="5"/>
-        <v>673.279</v>
-      </c>
-      <c r="S17" s="24">
-        <f t="shared" si="5"/>
-        <v>3.0601500000000001</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" si="5"/>
-        <v>657.58500000000004</v>
-      </c>
-      <c r="U17" s="24">
-        <f t="shared" si="5"/>
-        <v>0.59912100000000001</v>
-      </c>
-      <c r="V17" s="22">
-        <f t="shared" si="0"/>
-        <v>0.62088153588702177</v>
-      </c>
-      <c r="W17" s="39">
-        <f t="shared" si="6"/>
-        <v>-3.5047806432081385E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B18" s="2">
-        <v>709.375</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1390.04</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2">
-        <v>710.95500000000004</v>
-      </c>
-      <c r="G18" s="1">
-        <v>148.25299999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>728.01300000000003</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3.0016400000000001</v>
-      </c>
-      <c r="J18" s="2">
-        <v>706.32100000000003</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.71045999999999998</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="1"/>
-        <v>709.375</v>
-      </c>
-      <c r="O18" s="21">
-        <f t="shared" si="2"/>
-        <v>139004</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="3"/>
-        <v>710.95500000000004</v>
-      </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="4"/>
-        <v>1.4825299999999999E-4</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="5"/>
-        <v>728.01300000000003</v>
-      </c>
-      <c r="S18" s="24">
-        <f t="shared" si="5"/>
-        <v>3.0016400000000001</v>
-      </c>
-      <c r="T18" s="3">
-        <f t="shared" si="5"/>
-        <v>706.32100000000003</v>
-      </c>
-      <c r="U18" s="24">
-        <f t="shared" si="5"/>
-        <v>0.71045999999999998</v>
-      </c>
-      <c r="V18" s="22">
-        <f t="shared" si="0"/>
-        <v>0.71891541027316508</v>
-      </c>
-      <c r="W18" s="39">
-        <f t="shared" si="6"/>
-        <v>-1.176134236704196E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B19" s="2">
-        <v>807.81299999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1228.22</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2">
-        <v>806.09400000000005</v>
-      </c>
-      <c r="G19" s="1">
-        <v>161.43100000000001</v>
-      </c>
-      <c r="H19" s="2">
-        <v>831.83299999999997</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2.8441999999999998</v>
-      </c>
-      <c r="J19" s="2">
-        <v>805.49300000000005</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.88869900000000002</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="1"/>
-        <v>807.81299999999999</v>
-      </c>
-      <c r="O19" s="21">
-        <f t="shared" si="2"/>
-        <v>122822</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="3"/>
-        <v>806.09400000000005</v>
-      </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="4"/>
-        <v>1.6143099999999999E-4</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="5"/>
-        <v>831.83299999999997</v>
-      </c>
-      <c r="S19" s="24">
-        <f t="shared" si="5"/>
-        <v>2.8441999999999998</v>
-      </c>
-      <c r="T19" s="3">
-        <f t="shared" si="5"/>
-        <v>805.49300000000005</v>
-      </c>
-      <c r="U19" s="24">
-        <f t="shared" si="5"/>
-        <v>0.88869900000000002</v>
-      </c>
-      <c r="V19" s="22">
-        <f t="shared" si="0"/>
-        <v>0.90646633098712803</v>
-      </c>
-      <c r="W19" s="39">
-        <f t="shared" si="6"/>
-        <v>-1.9600651871735431E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B20" s="35">
-        <v>853.125</v>
-      </c>
-      <c r="C20" s="35">
-        <v>1091.29</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="35">
-        <v>852.95600000000002</v>
-      </c>
-      <c r="G20" s="35">
-        <v>167.655</v>
-      </c>
-      <c r="H20" s="35">
-        <v>875.23500000000001</v>
-      </c>
-      <c r="I20" s="35">
-        <v>2.8255400000000002</v>
-      </c>
-      <c r="J20" s="35">
-        <v>854.27700000000004</v>
-      </c>
-      <c r="K20" s="35">
-        <v>0.96948199999999995</v>
-      </c>
-      <c r="N20" s="3">
-        <f t="shared" si="1"/>
-        <v>853.125</v>
-      </c>
-      <c r="O20" s="21">
-        <f t="shared" si="2"/>
-        <v>109129</v>
-      </c>
-      <c r="P20" s="3">
-        <f t="shared" si="3"/>
-        <v>852.95600000000002</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" si="4"/>
-        <v>1.6765500000000001E-4</v>
-      </c>
-      <c r="R20" s="3">
-        <f t="shared" si="5"/>
-        <v>875.23500000000001</v>
-      </c>
-      <c r="S20" s="24">
-        <f t="shared" si="5"/>
-        <v>2.8255400000000002</v>
-      </c>
-      <c r="T20" s="3">
-        <f t="shared" si="5"/>
-        <v>854.27700000000004</v>
-      </c>
-      <c r="U20" s="24">
-        <f t="shared" si="5"/>
-        <v>0.96948199999999995</v>
-      </c>
-      <c r="V20" s="22">
-        <f>((O20*(Q20)^2)/S20)*T20</f>
-        <v>0.9274071708552617</v>
-      </c>
-      <c r="W20" s="39">
-        <f t="shared" si="6"/>
-        <v>4.5368237886209695E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="O23"/>
-      <c r="Q23"/>
-      <c r="S23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="O24"/>
-      <c r="Q24"/>
-      <c r="S24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:V23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="15" max="15" width="9" style="18"/>
-    <col min="17" max="17" width="10.5" style="14" customWidth="1"/>
-    <col min="19" max="19" width="9" style="22"/>
-    <col min="21" max="21" width="9" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B9" s="36">
-        <v>296.48599999999999</v>
-      </c>
-      <c r="C9" s="36">
-        <v>3889.73</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="36">
-        <v>296.93700000000001</v>
-      </c>
-      <c r="G9" s="36">
-        <v>28.604900000000001</v>
-      </c>
-      <c r="H9" s="36">
-        <v>302.34300000000002</v>
-      </c>
-      <c r="I9" s="36">
-        <v>5.1115599999999999</v>
-      </c>
-      <c r="J9" s="3">
-        <v>297.55500000000001</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1.6496199999999999E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <f>B9</f>
-        <v>296.48599999999999</v>
-      </c>
-      <c r="O9" s="21">
-        <f>C9*100</f>
-        <v>388973</v>
-      </c>
-      <c r="P9" s="3">
-        <f>F9</f>
-        <v>296.93700000000001</v>
-      </c>
-      <c r="Q9" s="17">
-        <f>G9*0.000001</f>
-        <v>2.8604899999999998E-5</v>
-      </c>
-      <c r="R9" s="3">
-        <f>H9</f>
-        <v>302.34300000000002</v>
-      </c>
-      <c r="S9" s="24">
-        <f>I9</f>
-        <v>5.1115599999999999</v>
-      </c>
-      <c r="T9" s="3">
-        <f>J9</f>
-        <v>297.55500000000001</v>
-      </c>
-      <c r="U9" s="24">
-        <f>K9</f>
-        <v>1.6496199999999999E-2</v>
-      </c>
-      <c r="V9" s="22">
-        <f t="shared" ref="V9:V19" si="0">((O9*(Q9)^2)/S9)*T9</f>
-        <v>1.8527384458617867E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B10" s="3">
-        <v>342.11500000000001</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3753.07</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3">
-        <v>342.39100000000002</v>
-      </c>
-      <c r="G10" s="4">
-        <v>34.352600000000002</v>
-      </c>
-      <c r="H10" s="3">
-        <v>349.91300000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5.1101700000000001</v>
-      </c>
-      <c r="J10" s="3">
-        <v>341.815</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2.8318699999999999E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10:N19" si="1">B10</f>
-        <v>342.11500000000001</v>
-      </c>
-      <c r="O10" s="21">
-        <f t="shared" ref="O10:O19" si="2">C10*100</f>
-        <v>375307</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" ref="P10:P19" si="3">F10</f>
-        <v>342.39100000000002</v>
-      </c>
-      <c r="Q10" s="17">
-        <f t="shared" ref="Q10:Q19" si="4">G10*0.000001</f>
-        <v>3.43526E-5</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" ref="R10:U19" si="5">H10</f>
-        <v>349.91300000000001</v>
-      </c>
-      <c r="S10" s="24">
-        <f t="shared" si="5"/>
-        <v>5.1101700000000001</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" si="5"/>
-        <v>341.815</v>
-      </c>
-      <c r="U10" s="24">
-        <f t="shared" si="5"/>
-        <v>2.8318699999999999E-2</v>
-      </c>
-      <c r="V10" s="22">
-        <f t="shared" si="0"/>
-        <v>2.9625225091368893E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B11" s="2">
-        <v>387.79199999999997</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3340.1</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2">
-        <v>392.10700000000003</v>
-      </c>
-      <c r="G11" s="1">
-        <v>40.542900000000003</v>
-      </c>
-      <c r="H11" s="2">
-        <v>400.51299999999998</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4.9328000000000003</v>
-      </c>
-      <c r="J11" s="2">
-        <v>388.40800000000002</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3.7820100000000002E-2</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="1"/>
-        <v>387.79199999999997</v>
-      </c>
-      <c r="O11" s="21">
-        <f t="shared" si="2"/>
-        <v>334010</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="3"/>
-        <v>392.10700000000003</v>
-      </c>
-      <c r="Q11" s="17">
-        <f t="shared" si="4"/>
-        <v>4.0542900000000001E-5</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="5"/>
-        <v>400.51299999999998</v>
-      </c>
-      <c r="S11" s="24">
-        <f t="shared" si="5"/>
-        <v>4.9328000000000003</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" si="5"/>
-        <v>388.40800000000002</v>
-      </c>
-      <c r="U11" s="24">
-        <f t="shared" si="5"/>
-        <v>3.7820100000000002E-2</v>
-      </c>
-      <c r="V11" s="22">
-        <f t="shared" si="0"/>
-        <v>4.3229852019084448E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B12" s="2">
-        <v>436.32499999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2887.75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2">
-        <v>436.12200000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>48.487299999999998</v>
-      </c>
-      <c r="H12" s="2">
-        <v>448.02800000000002</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4.6851799999999999</v>
-      </c>
-      <c r="J12" s="2">
-        <v>436.14699999999999</v>
-      </c>
-      <c r="K12" s="1">
-        <v>6.5966899999999995E-2</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="1"/>
-        <v>436.32499999999999</v>
-      </c>
-      <c r="O12" s="21">
-        <f t="shared" si="2"/>
-        <v>288775</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="3"/>
-        <v>436.12200000000001</v>
-      </c>
-      <c r="Q12" s="17">
-        <f t="shared" si="4"/>
-        <v>4.8487299999999992E-5</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="5"/>
-        <v>448.02800000000002</v>
-      </c>
-      <c r="S12" s="24">
-        <f t="shared" si="5"/>
-        <v>4.6851799999999999</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" si="5"/>
-        <v>436.14699999999999</v>
-      </c>
-      <c r="U12" s="24">
-        <f t="shared" si="5"/>
-        <v>6.5966899999999995E-2</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="0"/>
-        <v>6.320074589514553E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B13" s="2">
-        <v>484.84199999999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2534.08</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2">
-        <v>485.78699999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>61.271099999999997</v>
-      </c>
-      <c r="H13" s="2">
-        <v>498.6</v>
-      </c>
-      <c r="I13" s="1">
-        <v>4.3846999999999996</v>
-      </c>
-      <c r="J13" s="2">
-        <v>485.04300000000001</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.103439</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="1"/>
-        <v>484.84199999999998</v>
-      </c>
-      <c r="O13" s="21">
-        <f t="shared" si="2"/>
-        <v>253408</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="3"/>
-        <v>485.78699999999998</v>
-      </c>
-      <c r="Q13" s="17">
-        <f t="shared" si="4"/>
-        <v>6.1271099999999997E-5</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="5"/>
-        <v>498.6</v>
-      </c>
-      <c r="S13" s="24">
-        <f t="shared" si="5"/>
-        <v>4.3846999999999996</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" si="5"/>
-        <v>485.04300000000001</v>
-      </c>
-      <c r="U13" s="24">
-        <f t="shared" si="5"/>
-        <v>0.103439</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="0"/>
-        <v>0.1052378659708109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B14" s="2">
-        <v>531.92700000000002</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2219.84</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2">
-        <v>532.61800000000005</v>
-      </c>
-      <c r="G14" s="1">
-        <v>72.734099999999998</v>
-      </c>
-      <c r="H14" s="2">
-        <v>549.15700000000004</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4.0138699999999998</v>
-      </c>
-      <c r="J14" s="2">
-        <v>531.59900000000005</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.15022199999999999</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="1"/>
-        <v>531.92700000000002</v>
-      </c>
-      <c r="O14" s="21">
-        <f t="shared" si="2"/>
-        <v>221984</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="3"/>
-        <v>532.61800000000005</v>
-      </c>
-      <c r="Q14" s="17">
-        <f t="shared" si="4"/>
-        <v>7.2734099999999992E-5</v>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="5"/>
-        <v>549.15700000000004</v>
-      </c>
-      <c r="S14" s="24">
-        <f t="shared" si="5"/>
-        <v>4.0138699999999998</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" si="5"/>
-        <v>531.59900000000005</v>
-      </c>
-      <c r="U14" s="24">
-        <f t="shared" si="5"/>
-        <v>0.15022199999999999</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="0"/>
-        <v>0.15553160875310146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B15" s="2">
-        <v>583.29100000000005</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1886.01</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
-        <v>579.423</v>
-      </c>
-      <c r="G15" s="1">
-        <v>87.7136</v>
-      </c>
-      <c r="H15" s="2">
-        <v>599.71699999999998</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3.6606299999999998</v>
-      </c>
-      <c r="J15" s="2">
-        <v>579.30499999999995</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.21332000000000001</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="1"/>
-        <v>583.29100000000005</v>
-      </c>
-      <c r="O15" s="21">
-        <f t="shared" si="2"/>
-        <v>188601</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="3"/>
-        <v>579.423</v>
-      </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="4"/>
-        <v>8.7713599999999993E-5</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="5"/>
-        <v>599.71699999999998</v>
-      </c>
-      <c r="S15" s="24">
-        <f t="shared" si="5"/>
-        <v>3.6606299999999998</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" si="5"/>
-        <v>579.30499999999995</v>
-      </c>
-      <c r="U15" s="24">
-        <f t="shared" si="5"/>
-        <v>0.21332000000000001</v>
-      </c>
-      <c r="V15" s="22">
-        <f t="shared" si="0"/>
-        <v>0.2296303593447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B16" s="2">
-        <v>628.94299999999998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1611.19</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2">
-        <v>629.02700000000004</v>
-      </c>
-      <c r="G16" s="1">
-        <v>108.41</v>
-      </c>
-      <c r="H16" s="2">
-        <v>648.73199999999997</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.25467</v>
-      </c>
-      <c r="J16" s="2">
-        <v>630.45399999999995</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.33002399999999998</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="1"/>
-        <v>628.94299999999998</v>
-      </c>
-      <c r="O16" s="21">
-        <f t="shared" si="2"/>
-        <v>161119</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="3"/>
-        <v>629.02700000000004</v>
-      </c>
-      <c r="Q16" s="17">
-        <f t="shared" si="4"/>
-        <v>1.0840999999999999E-4</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="5"/>
-        <v>648.73199999999997</v>
-      </c>
-      <c r="S16" s="24">
-        <f t="shared" si="5"/>
-        <v>3.25467</v>
-      </c>
-      <c r="T16" s="3">
-        <f t="shared" si="5"/>
-        <v>630.45399999999995</v>
-      </c>
-      <c r="U16" s="24">
-        <f t="shared" si="5"/>
-        <v>0.33002399999999998</v>
-      </c>
-      <c r="V16" s="22">
-        <f t="shared" si="0"/>
-        <v>0.36680216491050904</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B17" s="2">
-        <v>677.45</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1316.74</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2">
-        <v>672.99800000000005</v>
-      </c>
-      <c r="G17" s="1">
-        <v>122.068</v>
-      </c>
-      <c r="H17" s="2">
-        <v>700.83500000000004</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2.9365600000000001</v>
-      </c>
-      <c r="J17" s="2">
-        <v>679.29100000000005</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.42807899999999999</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="1"/>
-        <v>677.45</v>
-      </c>
-      <c r="O17" s="21">
-        <f t="shared" si="2"/>
-        <v>131674</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="3"/>
-        <v>672.99800000000005</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="4"/>
-        <v>1.22068E-4</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="5"/>
-        <v>700.83500000000004</v>
-      </c>
-      <c r="S17" s="24">
-        <f t="shared" si="5"/>
-        <v>2.9365600000000001</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" si="5"/>
-        <v>679.29100000000005</v>
-      </c>
-      <c r="U17" s="24">
-        <f t="shared" si="5"/>
-        <v>0.42807899999999999</v>
-      </c>
-      <c r="V17" s="22">
-        <f t="shared" si="0"/>
-        <v>0.45385870396255651</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B18" s="2">
-        <v>725.93600000000004</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1140.7</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2">
-        <v>721.16700000000003</v>
-      </c>
-      <c r="G18" s="1">
-        <v>144.52099999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>749.86500000000001</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2.6009600000000002</v>
-      </c>
-      <c r="J18" s="2">
-        <v>723.39700000000005</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.59834900000000002</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="1"/>
-        <v>725.93600000000004</v>
-      </c>
-      <c r="O18" s="21">
-        <f t="shared" si="2"/>
-        <v>114070</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="3"/>
-        <v>721.16700000000003</v>
-      </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="4"/>
-        <v>1.4452099999999997E-4</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="5"/>
-        <v>749.86500000000001</v>
-      </c>
-      <c r="S18" s="24">
-        <f t="shared" si="5"/>
-        <v>2.6009600000000002</v>
-      </c>
-      <c r="T18" s="3">
-        <f t="shared" si="5"/>
-        <v>723.39700000000005</v>
-      </c>
-      <c r="U18" s="24">
-        <f t="shared" si="5"/>
-        <v>0.59834900000000002</v>
-      </c>
-      <c r="V18" s="22">
-        <f t="shared" si="0"/>
-        <v>0.66263807635222693</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="B19" s="35">
-        <v>852.83699999999999</v>
-      </c>
-      <c r="C19" s="35">
-        <v>789.61</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="35">
-        <v>851.66600000000005</v>
-      </c>
-      <c r="G19" s="35">
-        <v>184.61699999999999</v>
-      </c>
-      <c r="H19" s="35">
-        <v>875.55799999999999</v>
-      </c>
-      <c r="I19" s="35">
-        <v>1.98169</v>
-      </c>
-      <c r="J19" s="2">
-        <v>849.98199999999997</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1.01593</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="1"/>
-        <v>852.83699999999999</v>
-      </c>
-      <c r="O19" s="21">
-        <f t="shared" si="2"/>
-        <v>78961</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="3"/>
-        <v>851.66600000000005</v>
-      </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="4"/>
-        <v>1.8461699999999998E-4</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="5"/>
-        <v>875.55799999999999</v>
-      </c>
-      <c r="S19" s="24">
-        <f t="shared" si="5"/>
-        <v>1.98169</v>
-      </c>
-      <c r="T19" s="3">
-        <f t="shared" si="5"/>
-        <v>849.98199999999997</v>
-      </c>
-      <c r="U19" s="24">
-        <f t="shared" si="5"/>
-        <v>1.01593</v>
-      </c>
-      <c r="V19" s="22">
-        <f t="shared" si="0"/>
-        <v>1.1543301248024211</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="O22"/>
-      <c r="Q22"/>
-      <c r="S22"/>
-      <c r="U22"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.6">
-      <c r="O23"/>
-      <c r="Q23"/>
-      <c r="S23"/>
-      <c r="U23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:V34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="15" max="15" width="9" style="18"/>
-    <col min="17" max="17" width="10.5" style="14" customWidth="1"/>
-    <col min="19" max="19" width="9" style="22"/>
-    <col min="21" max="21" width="9" style="22"/>
-    <col min="22" max="22" width="13.0625" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -27989,13 +29373,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -29499,13 +30883,13 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -30408,13 +31792,13 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -31431,13 +32815,13 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -32669,13 +34053,13 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -33789,13 +35173,13 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -34819,13 +36203,13 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -35435,13 +36819,13 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -36555,13 +37939,13 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -38151,13 +39535,13 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -38795,13 +40179,13 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -39762,13 +41146,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -41334,13 +42718,13 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -41863,13 +43247,13 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -43351,13 +44735,13 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -44719,13 +46103,13 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -45499,13 +46883,13 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -46280,13 +47664,13 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -49194,13 +50578,13 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -51909,13 +53293,13 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -53165,13 +54549,13 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -54037,13 +55421,13 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -55839,13 +57223,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -57809,13 +59193,13 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -58701,13 +60085,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -60251,13 +61635,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -61616,13 +63000,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -63126,13 +64510,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
